--- a/Dataset/Data Satellites.xlsx
+++ b/Dataset/Data Satellites.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Università\V Anno\I Semester\Nonparametric Statistics\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10685384_polimi_it/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AFCF1A-93B4-48F1-BAC3-357FFB7AFA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{7D2FF369-21D1-4AC3-9A02-E090BDD6FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F47FE5B-257F-49D1-8FFE-2906B18CC255}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="439">
   <si>
     <t>Satellite Name</t>
   </si>
@@ -97,7 +113,7 @@
     <t>Military</t>
   </si>
   <si>
-    <t>active</t>
+    <t>censored</t>
   </si>
   <si>
     <t>Skynet 4C</t>
@@ -304,6 +320,9 @@
     <t>Eutelsat 36A</t>
   </si>
   <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Sirius-1 (SD Radio 1)</t>
   </si>
   <si>
@@ -545,9 +564,6 @@
   </si>
   <si>
     <t>Syracuse 3A</t>
-  </si>
-  <si>
-    <t>France</t>
   </si>
   <si>
     <t>USA 186</t>
@@ -1346,7 +1362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1358,6 +1374,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1380,9 +1403,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1681,19 +1706,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q35:Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="P227" sqref="P227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,14 +1765,14 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1792,14 +1818,15 @@
       <c r="O2" s="1">
         <v>40878</v>
       </c>
-      <c r="P2">
-        <v>23.19</v>
+      <c r="P2" s="2">
+        <f>((YEAR(O2)-YEAR(M2))*12+MONTH(O2)-MONTH(M2))/12</f>
+        <v>23.25</v>
       </c>
       <c r="Q2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1845,14 +1872,15 @@
       <c r="O3" s="1">
         <v>45247</v>
       </c>
-      <c r="P3">
-        <v>34.17</v>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P66" si="0">((YEAR(O3)-YEAR(M3))*12+MONTH(O3)-MONTH(M3))/12</f>
+        <v>34.166666666666664</v>
       </c>
       <c r="Q3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1898,14 +1926,15 @@
       <c r="O4" s="1">
         <v>45247</v>
       </c>
-      <c r="P4">
-        <v>33.24</v>
+      <c r="P4" s="2">
+        <f t="shared" si="0"/>
+        <v>33.25</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1951,14 +1980,15 @@
       <c r="O5" s="1">
         <v>45247</v>
       </c>
-      <c r="P5">
-        <v>32.32</v>
+      <c r="P5" s="2">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
       </c>
       <c r="Q5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2004,14 +2034,15 @@
       <c r="O6" s="1">
         <v>45247</v>
       </c>
-      <c r="P6">
-        <v>30.86</v>
+      <c r="P6" s="2">
+        <f t="shared" si="0"/>
+        <v>30.833333333333332</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2057,14 +2088,15 @@
       <c r="O7" s="1">
         <v>45247</v>
       </c>
-      <c r="P7">
-        <v>28.82</v>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>28.833333333333332</v>
       </c>
       <c r="Q7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2110,14 +2142,15 @@
       <c r="O8" s="1">
         <v>45247</v>
       </c>
-      <c r="P8">
-        <v>28.63</v>
+      <c r="P8" s="2">
+        <f t="shared" si="0"/>
+        <v>28.583333333333332</v>
       </c>
       <c r="Q8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2163,14 +2196,15 @@
       <c r="O9" s="1">
         <v>45247</v>
       </c>
-      <c r="P9">
-        <v>28.37</v>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
       </c>
       <c r="Q9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2211,19 +2245,20 @@
         <v>34911</v>
       </c>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O10" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P10">
-        <v>28.32</v>
+        <v>44904</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>27.416666666666668</v>
       </c>
       <c r="Q10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2269,14 +2304,15 @@
       <c r="O11" s="1">
         <v>40739</v>
       </c>
-      <c r="P11">
-        <v>14.86</v>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>14.833333333333334</v>
       </c>
       <c r="Q11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2322,14 +2358,15 @@
       <c r="O12" s="1">
         <v>45247</v>
       </c>
-      <c r="P12">
-        <v>26.93</v>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>26.916666666666668</v>
       </c>
       <c r="Q12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2370,19 +2407,20 @@
         <v>35524</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O13" s="1">
-        <v>44904</v>
-      </c>
-      <c r="P13">
-        <v>25.7</v>
+        <v>45247</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>26.583333333333332</v>
       </c>
       <c r="Q13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2428,14 +2466,15 @@
       <c r="O14" s="1">
         <v>45247</v>
       </c>
-      <c r="P14">
-        <v>26.34</v>
+      <c r="P14" s="2">
+        <f t="shared" si="0"/>
+        <v>26.333333333333332</v>
       </c>
       <c r="Q14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2481,14 +2520,15 @@
       <c r="O15" s="1">
         <v>41201</v>
       </c>
-      <c r="P15">
-        <v>15.15</v>
+      <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>15.166666666666666</v>
       </c>
       <c r="Q15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2532,16 +2572,17 @@
         <v>25</v>
       </c>
       <c r="O16" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P16">
-        <v>26.24</v>
+        <v>40179</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="0"/>
+        <v>12.416666666666666</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2587,14 +2628,15 @@
       <c r="O17" s="1">
         <v>45247</v>
       </c>
-      <c r="P17">
-        <v>26.22</v>
+      <c r="P17" s="2">
+        <f t="shared" si="0"/>
+        <v>26.166666666666668</v>
       </c>
       <c r="Q17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2640,14 +2682,15 @@
       <c r="O18" s="1">
         <v>41942</v>
       </c>
-      <c r="P18">
-        <v>17.03</v>
+      <c r="P18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="Q18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2690,12 +2733,18 @@
       <c r="N19" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <v>45078</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
       <c r="Q19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2739,16 +2788,17 @@
         <v>25</v>
       </c>
       <c r="O20" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P20">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2792,16 +2842,17 @@
         <v>25</v>
       </c>
       <c r="O21" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P21">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2845,16 +2896,17 @@
         <v>25</v>
       </c>
       <c r="O22" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P22">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2898,16 +2950,17 @@
         <v>25</v>
       </c>
       <c r="O23" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P23">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2951,16 +3004,17 @@
         <v>25</v>
       </c>
       <c r="O24" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P24">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3004,16 +3058,17 @@
         <v>25</v>
       </c>
       <c r="O25" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P25">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q25">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3057,16 +3112,17 @@
         <v>25</v>
       </c>
       <c r="O26" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P26">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -3110,16 +3166,17 @@
         <v>25</v>
       </c>
       <c r="O27" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P27">
-        <v>25.92</v>
+        <v>45031</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
       </c>
       <c r="Q27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -3165,14 +3222,15 @@
       <c r="O28" s="1">
         <v>45247</v>
       </c>
-      <c r="P28">
-        <v>25.8</v>
+      <c r="P28" s="2">
+        <f t="shared" si="0"/>
+        <v>25.75</v>
       </c>
       <c r="Q28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3216,16 +3274,17 @@
         <v>25</v>
       </c>
       <c r="O29" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P29">
-        <v>25.78</v>
+        <v>41821</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="0"/>
+        <v>16.416666666666668</v>
       </c>
       <c r="Q29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3266,19 +3325,20 @@
         <v>35870</v>
       </c>
       <c r="N30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O30" s="1">
-        <v>44698</v>
-      </c>
-      <c r="P30">
-        <v>24.19</v>
+        <v>45247</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="0"/>
+        <v>25.666666666666668</v>
       </c>
       <c r="Q30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3324,14 +3384,15 @@
       <c r="O31" s="1">
         <v>45247</v>
       </c>
-      <c r="P31">
-        <v>25.53</v>
+      <c r="P31" s="2">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
       </c>
       <c r="Q31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3375,16 +3436,17 @@
         <v>25</v>
       </c>
       <c r="O32" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P32">
-        <v>25.31</v>
+        <v>45031</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3428,16 +3490,17 @@
         <v>25</v>
       </c>
       <c r="O33" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P33">
-        <v>25.31</v>
+        <v>45031</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q33">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3481,16 +3544,17 @@
         <v>25</v>
       </c>
       <c r="O34" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P34">
-        <v>25.31</v>
+        <v>45031</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3534,16 +3598,17 @@
         <v>25</v>
       </c>
       <c r="O35" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P35">
-        <v>25.31</v>
+        <v>45031</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -3587,16 +3652,17 @@
         <v>25</v>
       </c>
       <c r="O36" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P36">
-        <v>25.31</v>
+        <v>45031</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -3640,16 +3706,17 @@
         <v>25</v>
       </c>
       <c r="O37" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P37">
-        <v>25.31</v>
+        <v>45031</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3695,14 +3762,15 @@
       <c r="O38" s="1">
         <v>42064</v>
       </c>
-      <c r="P38">
-        <v>16.510000000000002</v>
+      <c r="P38" s="2">
+        <f t="shared" si="0"/>
+        <v>16.583333333333332</v>
       </c>
       <c r="Q38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -3746,16 +3814,17 @@
         <v>25</v>
       </c>
       <c r="O39" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P39">
-        <v>25.17</v>
+        <v>45031</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="0"/>
+        <v>24.583333333333332</v>
       </c>
       <c r="Q39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3799,16 +3868,17 @@
         <v>25</v>
       </c>
       <c r="O40" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P40">
-        <v>25.17</v>
+        <v>45031</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="0"/>
+        <v>24.583333333333332</v>
       </c>
       <c r="Q40">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -3852,16 +3922,17 @@
         <v>25</v>
       </c>
       <c r="O41" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P41">
-        <v>25.17</v>
+        <v>45031</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="0"/>
+        <v>24.583333333333332</v>
       </c>
       <c r="Q41">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3907,14 +3978,15 @@
       <c r="O42" s="1">
         <v>45247</v>
       </c>
-      <c r="P42">
-        <v>24.84</v>
+      <c r="P42" s="2">
+        <f t="shared" si="0"/>
+        <v>24.833333333333332</v>
       </c>
       <c r="Q42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -3960,14 +4032,15 @@
       <c r="O43" s="1">
         <v>45247</v>
       </c>
-      <c r="P43">
-        <v>24.74</v>
+      <c r="P43" s="2">
+        <f t="shared" si="0"/>
+        <v>24.75</v>
       </c>
       <c r="Q43">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -4013,14 +4086,15 @@
       <c r="O44" s="1">
         <v>45247</v>
       </c>
-      <c r="P44">
-        <v>24.69</v>
+      <c r="P44" s="2">
+        <f t="shared" si="0"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="Q44">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -4066,14 +4140,15 @@
       <c r="O45" s="1">
         <v>45247</v>
       </c>
-      <c r="P45">
-        <v>24.61</v>
+      <c r="P45" s="2">
+        <f t="shared" si="0"/>
+        <v>24.583333333333332</v>
       </c>
       <c r="Q45">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4119,14 +4194,15 @@
       <c r="O46" s="1">
         <v>45247</v>
       </c>
-      <c r="P46">
-        <v>24.16</v>
+      <c r="P46" s="2">
+        <f t="shared" si="0"/>
+        <v>24.166666666666668</v>
       </c>
       <c r="Q46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -4172,14 +4248,15 @@
       <c r="O47" s="1">
         <v>45247</v>
       </c>
-      <c r="P47">
-        <v>24.13</v>
+      <c r="P47" s="2">
+        <f t="shared" si="0"/>
+        <v>24.083333333333332</v>
       </c>
       <c r="Q47">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -4225,14 +4302,15 @@
       <c r="O48" s="1">
         <v>45247</v>
       </c>
-      <c r="P48">
-        <v>24.03</v>
+      <c r="P48" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="Q48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -4278,14 +4356,15 @@
       <c r="O49" s="1">
         <v>44996</v>
       </c>
-      <c r="P49">
-        <v>23.31</v>
+      <c r="P49" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q49">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -4329,16 +4408,17 @@
         <v>25</v>
       </c>
       <c r="O50" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P50">
-        <v>23.97</v>
+        <v>45031</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -4382,16 +4462,17 @@
         <v>25</v>
       </c>
       <c r="O51" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P51">
-        <v>23.97</v>
+        <v>45031</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -4435,16 +4516,17 @@
         <v>25</v>
       </c>
       <c r="O52" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P52">
-        <v>23.97</v>
+        <v>45031</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -4488,16 +4570,17 @@
         <v>25</v>
       </c>
       <c r="O53" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P53">
-        <v>23.97</v>
+        <v>45031</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4543,14 +4626,15 @@
       <c r="O54" s="1">
         <v>44996</v>
       </c>
-      <c r="P54">
-        <v>23.28</v>
+      <c r="P54" s="2">
+        <f t="shared" si="0"/>
+        <v>23.25</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -4596,14 +4680,15 @@
       <c r="O55" s="1">
         <v>45247</v>
       </c>
-      <c r="P55">
-        <v>23.95</v>
+      <c r="P55" s="2">
+        <f t="shared" si="0"/>
+        <v>23.916666666666668</v>
       </c>
       <c r="Q55">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -4649,14 +4734,15 @@
       <c r="O56" s="1">
         <v>45247</v>
       </c>
-      <c r="P56">
-        <v>23.95</v>
+      <c r="P56" s="2">
+        <f t="shared" si="0"/>
+        <v>23.916666666666668</v>
       </c>
       <c r="Q56">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4702,14 +4788,15 @@
       <c r="O57" s="1">
         <v>45247</v>
       </c>
-      <c r="P57">
-        <v>23.89</v>
+      <c r="P57" s="2">
+        <f t="shared" si="0"/>
+        <v>23.833333333333332</v>
       </c>
       <c r="Q57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -4755,14 +4842,15 @@
       <c r="O58" s="1">
         <v>45247</v>
       </c>
-      <c r="P58">
-        <v>23.67</v>
+      <c r="P58" s="2">
+        <f t="shared" si="0"/>
+        <v>23.666666666666668</v>
       </c>
       <c r="Q58">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -4808,19 +4896,20 @@
       <c r="O59" s="1">
         <v>45247</v>
       </c>
-      <c r="P59">
-        <v>23.53</v>
+      <c r="P59" s="2">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
       </c>
       <c r="Q59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>32</v>
@@ -4859,18 +4948,19 @@
         <v>25</v>
       </c>
       <c r="O60" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P60">
-        <v>23.5</v>
+        <v>44698</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="Q60">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -4914,16 +5004,17 @@
       <c r="O61" s="1">
         <v>45247</v>
       </c>
-      <c r="P61">
-        <v>23.4</v>
+      <c r="P61" s="2">
+        <f t="shared" si="0"/>
+        <v>23.416666666666668</v>
       </c>
       <c r="Q61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -4967,16 +5058,17 @@
       <c r="O62" s="1">
         <v>45247</v>
       </c>
-      <c r="P62">
-        <v>23.4</v>
+      <c r="P62" s="2">
+        <f t="shared" si="0"/>
+        <v>23.416666666666668</v>
       </c>
       <c r="Q62">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -5020,16 +5112,17 @@
       <c r="O63" s="1">
         <v>45247</v>
       </c>
-      <c r="P63">
-        <v>23.35</v>
+      <c r="P63" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q63">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
         <v>86</v>
@@ -5071,18 +5164,19 @@
         <v>25</v>
       </c>
       <c r="O64" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P64">
-        <v>23.35</v>
+        <v>43709</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="0"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="Q64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
         <v>86</v>
@@ -5124,18 +5218,19 @@
         <v>25</v>
       </c>
       <c r="O65" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P65">
-        <v>23.35</v>
+        <v>43709</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="0"/>
+        <v>19.166666666666668</v>
       </c>
       <c r="Q65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -5177,18 +5272,19 @@
         <v>25</v>
       </c>
       <c r="O66" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P66">
-        <v>23.32</v>
+        <v>45237</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q66">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
         <v>86</v>
@@ -5230,18 +5326,19 @@
         <v>25</v>
       </c>
       <c r="O67" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P67">
-        <v>23.29</v>
+        <v>43709</v>
+      </c>
+      <c r="P67" s="2">
+        <f t="shared" ref="P67:P130" si="1">((YEAR(O67)-YEAR(M67))*12+MONTH(O67)-MONTH(M67))/12</f>
+        <v>19.083333333333332</v>
       </c>
       <c r="Q67">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
         <v>86</v>
@@ -5283,21 +5380,22 @@
         <v>25</v>
       </c>
       <c r="O68" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P68">
-        <v>23.29</v>
+        <v>43709</v>
+      </c>
+      <c r="P68" s="2">
+        <f t="shared" si="1"/>
+        <v>19.083333333333332</v>
       </c>
       <c r="Q68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
@@ -5338,16 +5436,17 @@
       <c r="O69" s="1">
         <v>44348</v>
       </c>
-      <c r="P69">
-        <v>20.8</v>
+      <c r="P69" s="2">
+        <f t="shared" si="1"/>
+        <v>20.833333333333332</v>
       </c>
       <c r="Q69">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -5391,19 +5490,20 @@
       <c r="O70" s="1">
         <v>39829</v>
       </c>
-      <c r="P70">
-        <v>8.3699999999999992</v>
+      <c r="P70" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="Q70">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C71" t="s">
         <v>32</v>
@@ -5444,16 +5544,17 @@
       <c r="O71" s="1">
         <v>45247</v>
       </c>
-      <c r="P71">
-        <v>23.14</v>
+      <c r="P71" s="2">
+        <f t="shared" si="1"/>
+        <v>23.083333333333332</v>
       </c>
       <c r="Q71">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -5497,16 +5598,17 @@
       <c r="O72" s="1">
         <v>45247</v>
       </c>
-      <c r="P72">
-        <v>23.09</v>
+      <c r="P72" s="2">
+        <f t="shared" si="1"/>
+        <v>23.083333333333332</v>
       </c>
       <c r="Q72">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -5550,16 +5652,17 @@
       <c r="O73" s="1">
         <v>45247</v>
       </c>
-      <c r="P73">
-        <v>23.08</v>
+      <c r="P73" s="2">
+        <f t="shared" si="1"/>
+        <v>23.083333333333332</v>
       </c>
       <c r="Q73">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -5603,16 +5706,17 @@
       <c r="O74" s="1">
         <v>45247</v>
       </c>
-      <c r="P74">
-        <v>23.07</v>
+      <c r="P74" s="2">
+        <f t="shared" si="1"/>
+        <v>23.083333333333332</v>
       </c>
       <c r="Q74">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -5656,16 +5760,17 @@
       <c r="O75" s="1">
         <v>45247</v>
       </c>
-      <c r="P75">
-        <v>23.03</v>
+      <c r="P75" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="Q75">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -5704,24 +5809,25 @@
         <v>36845</v>
       </c>
       <c r="N76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O76" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P76">
-        <v>23.02</v>
+        <v>40179</v>
+      </c>
+      <c r="P76" s="2">
+        <f t="shared" si="1"/>
+        <v>9.1666666666666661</v>
       </c>
       <c r="Q76">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
@@ -5762,16 +5868,17 @@
       <c r="O77" s="1">
         <v>45247</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="2">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="Q77">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -5815,16 +5922,17 @@
       <c r="O78" s="1">
         <v>45247</v>
       </c>
-      <c r="P78">
-        <v>22.98</v>
+      <c r="P78" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="Q78">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -5866,18 +5974,19 @@
         <v>25</v>
       </c>
       <c r="O79" s="1">
-        <v>45247</v>
-      </c>
-      <c r="P79">
-        <v>22.93</v>
+        <v>44347</v>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="1"/>
+        <v>20.416666666666668</v>
       </c>
       <c r="Q79">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -5921,16 +6030,17 @@
       <c r="O80" s="1">
         <v>44953</v>
       </c>
-      <c r="P80">
-        <v>22.12</v>
+      <c r="P80" s="2">
+        <f t="shared" si="1"/>
+        <v>22.083333333333332</v>
       </c>
       <c r="Q80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -5974,19 +6084,20 @@
       <c r="O81" s="1">
         <v>45247</v>
       </c>
-      <c r="P81">
-        <v>22.81</v>
+      <c r="P81" s="2">
+        <f t="shared" si="1"/>
+        <v>22.833333333333332</v>
       </c>
       <c r="Q81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
@@ -6027,19 +6138,20 @@
       <c r="O82" s="1">
         <v>44328</v>
       </c>
-      <c r="P82">
-        <v>20.27</v>
+      <c r="P82" s="2">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
       </c>
       <c r="Q82">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -6080,16 +6192,17 @@
       <c r="O83" s="1">
         <v>45247</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="2">
+        <f t="shared" si="1"/>
         <v>22.75</v>
       </c>
       <c r="Q83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
         <v>76</v>
@@ -6133,16 +6246,17 @@
       <c r="O84" s="1">
         <v>45247</v>
       </c>
-      <c r="P84">
-        <v>22.71</v>
+      <c r="P84" s="2">
+        <f t="shared" si="1"/>
+        <v>22.666666666666668</v>
       </c>
       <c r="Q84">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -6186,16 +6300,17 @@
       <c r="O85" s="1">
         <v>45247</v>
       </c>
-      <c r="P85">
-        <v>22.53</v>
+      <c r="P85" s="2">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="Q85">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -6239,16 +6354,17 @@
       <c r="O86" s="1">
         <v>45247</v>
       </c>
-      <c r="P86">
-        <v>22.45</v>
+      <c r="P86" s="2">
+        <f t="shared" si="1"/>
+        <v>22.416666666666668</v>
       </c>
       <c r="Q86">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -6287,21 +6403,22 @@
         <v>37058</v>
       </c>
       <c r="N87" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O87" s="1">
-        <v>45224</v>
-      </c>
-      <c r="P87">
-        <v>22.37</v>
+        <v>44793</v>
+      </c>
+      <c r="P87" s="2">
+        <f t="shared" si="1"/>
+        <v>21.166666666666668</v>
       </c>
       <c r="Q87">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -6345,19 +6462,20 @@
       <c r="O88" s="1">
         <v>45247</v>
       </c>
-      <c r="P88">
-        <v>22.23</v>
+      <c r="P88" s="2">
+        <f t="shared" si="1"/>
+        <v>22.25</v>
       </c>
       <c r="Q88">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
@@ -6398,16 +6516,17 @@
       <c r="O89" s="1">
         <v>38717</v>
       </c>
-      <c r="P89">
-        <v>4.1900000000000004</v>
+      <c r="P89" s="2">
+        <f t="shared" si="1"/>
+        <v>4.166666666666667</v>
       </c>
       <c r="Q89">
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -6451,16 +6570,17 @@
       <c r="O90" s="1">
         <v>44687</v>
       </c>
-      <c r="P90">
-        <v>20.22</v>
+      <c r="P90" s="2">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
       </c>
       <c r="Q90">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -6504,16 +6624,17 @@
       <c r="O91" s="1">
         <v>45247</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="2">
+        <f t="shared" si="1"/>
         <v>21.75</v>
       </c>
       <c r="Q91">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -6557,16 +6678,17 @@
       <c r="O92" s="1">
         <v>44931</v>
       </c>
-      <c r="P92">
-        <v>20.84</v>
+      <c r="P92" s="2">
+        <f t="shared" si="1"/>
+        <v>20.833333333333332</v>
       </c>
       <c r="Q92">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -6610,19 +6732,20 @@
       <c r="O93" s="1">
         <v>44955</v>
       </c>
-      <c r="P93">
-        <v>20.85</v>
+      <c r="P93" s="2">
+        <f t="shared" si="1"/>
+        <v>20.833333333333332</v>
       </c>
       <c r="Q93">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C94" t="s">
         <v>32</v>
@@ -6657,17 +6780,26 @@
       <c r="M94" s="1">
         <v>37344</v>
       </c>
-      <c r="O94" s="1"/>
+      <c r="N94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P94" s="2">
+        <f t="shared" si="1"/>
+        <v>21.666666666666668</v>
+      </c>
       <c r="Q94">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C95" t="s">
         <v>32</v>
@@ -6708,16 +6840,17 @@
       <c r="O95" s="1">
         <v>45247</v>
       </c>
-      <c r="P95">
-        <v>21.6</v>
+      <c r="P95" s="2">
+        <f t="shared" si="1"/>
+        <v>21.583333333333332</v>
       </c>
       <c r="Q95">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
@@ -6761,16 +6894,17 @@
       <c r="O96" s="1">
         <v>45247</v>
       </c>
-      <c r="P96">
-        <v>21.55</v>
+      <c r="P96" s="2">
+        <f t="shared" si="1"/>
+        <v>21.5</v>
       </c>
       <c r="Q96">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -6814,16 +6948,17 @@
       <c r="O97" s="1">
         <v>45224</v>
       </c>
-      <c r="P97">
-        <v>21.48</v>
+      <c r="P97" s="2">
+        <f t="shared" si="1"/>
+        <v>21.416666666666668</v>
       </c>
       <c r="Q97">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -6867,16 +7002,17 @@
       <c r="O98" s="1">
         <v>45247</v>
       </c>
-      <c r="P98">
-        <v>21.47</v>
+      <c r="P98" s="2">
+        <f t="shared" si="1"/>
+        <v>21.416666666666668</v>
       </c>
       <c r="Q98">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -6920,16 +7056,17 @@
       <c r="O99" s="1">
         <v>45247</v>
       </c>
-      <c r="P99">
-        <v>21.44</v>
+      <c r="P99" s="2">
+        <f t="shared" si="1"/>
+        <v>21.416666666666668</v>
       </c>
       <c r="Q99">
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
         <v>76</v>
@@ -6973,16 +7110,17 @@
       <c r="O100" s="1">
         <v>44946</v>
       </c>
-      <c r="P100">
-        <v>20.56</v>
+      <c r="P100" s="2">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
       </c>
       <c r="Q100">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
         <v>76</v>
@@ -7026,16 +7164,17 @@
       <c r="O101" s="1">
         <v>44743</v>
       </c>
-      <c r="P101">
-        <v>19.87</v>
+      <c r="P101" s="2">
+        <f t="shared" si="1"/>
+        <v>19.916666666666668</v>
       </c>
       <c r="Q101">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
@@ -7079,19 +7218,20 @@
       <c r="O102" s="1">
         <v>45247</v>
       </c>
-      <c r="P102">
-        <v>21.21</v>
+      <c r="P102" s="2">
+        <f t="shared" si="1"/>
+        <v>21.166666666666668</v>
       </c>
       <c r="Q102">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
@@ -7132,16 +7272,17 @@
       <c r="O103" s="1">
         <v>45247</v>
       </c>
-      <c r="P103">
-        <v>21.18</v>
+      <c r="P103" s="2">
+        <f t="shared" si="1"/>
+        <v>21.166666666666668</v>
       </c>
       <c r="Q103">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
         <v>86</v>
@@ -7185,16 +7326,17 @@
       <c r="O104" s="1">
         <v>45247</v>
       </c>
-      <c r="P104">
-        <v>21.1</v>
+      <c r="P104" s="2">
+        <f t="shared" si="1"/>
+        <v>21.083333333333332</v>
       </c>
       <c r="Q104">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
@@ -7238,16 +7380,17 @@
       <c r="O105" s="1">
         <v>45247</v>
       </c>
-      <c r="P105">
-        <v>20.97</v>
+      <c r="P105" s="2">
+        <f t="shared" si="1"/>
+        <v>20.916666666666668</v>
       </c>
       <c r="Q105">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
@@ -7291,16 +7434,17 @@
       <c r="O106" s="1">
         <v>44561</v>
       </c>
-      <c r="P106">
-        <v>19</v>
+      <c r="P106" s="2">
+        <f t="shared" si="1"/>
+        <v>18.916666666666668</v>
       </c>
       <c r="Q106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
@@ -7344,16 +7488,17 @@
       <c r="O107" s="1">
         <v>43886</v>
       </c>
-      <c r="P107">
-        <v>17.100000000000001</v>
+      <c r="P107" s="2">
+        <f t="shared" si="1"/>
+        <v>17.083333333333332</v>
       </c>
       <c r="Q107">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
@@ -7397,16 +7542,17 @@
       <c r="O108" s="1">
         <v>45247</v>
       </c>
-      <c r="P108">
-        <v>20.81</v>
+      <c r="P108" s="2">
+        <f t="shared" si="1"/>
+        <v>20.833333333333332</v>
       </c>
       <c r="Q108">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
@@ -7450,16 +7596,17 @@
       <c r="O109" s="1">
         <v>45247</v>
       </c>
-      <c r="P109">
-        <v>20.7</v>
+      <c r="P109" s="2">
+        <f t="shared" si="1"/>
+        <v>20.666666666666668</v>
       </c>
       <c r="Q109">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
@@ -7503,16 +7650,17 @@
       <c r="O110" s="1">
         <v>45247</v>
       </c>
-      <c r="P110">
-        <v>20.65</v>
+      <c r="P110" s="2">
+        <f t="shared" si="1"/>
+        <v>20.666666666666668</v>
       </c>
       <c r="Q110">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
@@ -7556,19 +7704,20 @@
       <c r="O111" s="1">
         <v>45247</v>
       </c>
-      <c r="P111">
-        <v>20.62</v>
+      <c r="P111" s="2">
+        <f t="shared" si="1"/>
+        <v>20.583333333333332</v>
       </c>
       <c r="Q111">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
         <v>32</v>
@@ -7609,19 +7758,20 @@
       <c r="O112" s="1">
         <v>45247</v>
       </c>
-      <c r="P112">
-        <v>20.45</v>
+      <c r="P112" s="2">
+        <f t="shared" si="1"/>
+        <v>20.416666666666668</v>
       </c>
       <c r="Q112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
@@ -7662,19 +7812,20 @@
       <c r="O113" s="1">
         <v>45247</v>
       </c>
-      <c r="P113">
-        <v>20.45</v>
+      <c r="P113" s="2">
+        <f t="shared" si="1"/>
+        <v>20.416666666666668</v>
       </c>
       <c r="Q113">
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -7715,16 +7866,17 @@
       <c r="O114" s="1">
         <v>43555</v>
       </c>
-      <c r="P114">
-        <v>15.76</v>
+      <c r="P114" s="2">
+        <f t="shared" si="1"/>
+        <v>15.75</v>
       </c>
       <c r="Q114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
@@ -7768,16 +7920,17 @@
       <c r="O115" s="1">
         <v>45247</v>
       </c>
-      <c r="P115">
-        <v>20.29</v>
+      <c r="P115" s="2">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
       </c>
       <c r="Q115">
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
@@ -7821,16 +7974,17 @@
       <c r="O116" s="1">
         <v>45247</v>
       </c>
-      <c r="P116">
-        <v>20.23</v>
+      <c r="P116" s="2">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
       </c>
       <c r="Q116">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
@@ -7874,16 +8028,17 @@
       <c r="O117" s="1">
         <v>45247</v>
       </c>
-      <c r="P117">
-        <v>20.14</v>
+      <c r="P117" s="2">
+        <f t="shared" si="1"/>
+        <v>20.083333333333332</v>
       </c>
       <c r="Q117">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
         <v>18</v>
@@ -7927,16 +8082,17 @@
       <c r="O118" s="1">
         <v>45247</v>
       </c>
-      <c r="P118">
-        <v>20.100000000000001</v>
+      <c r="P118" s="2">
+        <f t="shared" si="1"/>
+        <v>20.083333333333332</v>
       </c>
       <c r="Q118">
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
         <v>18</v>
@@ -7980,16 +8136,17 @@
       <c r="O119" s="1">
         <v>45247</v>
       </c>
-      <c r="P119">
-        <v>19.93</v>
+      <c r="P119" s="2">
+        <f t="shared" si="1"/>
+        <v>19.916666666666668</v>
       </c>
       <c r="Q119">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
         <v>76</v>
@@ -8033,16 +8190,17 @@
       <c r="O120" s="1">
         <v>45247</v>
       </c>
-      <c r="P120">
-        <v>19.690000000000001</v>
+      <c r="P120" s="2">
+        <f t="shared" si="1"/>
+        <v>19.666666666666668</v>
       </c>
       <c r="Q120">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
         <v>76</v>
@@ -8086,16 +8244,17 @@
       <c r="O121" s="1">
         <v>45247</v>
       </c>
-      <c r="P121">
-        <v>19.690000000000001</v>
+      <c r="P121" s="2">
+        <f t="shared" si="1"/>
+        <v>19.666666666666668</v>
       </c>
       <c r="Q121">
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
         <v>18</v>
@@ -8139,16 +8298,17 @@
       <c r="O122" s="1">
         <v>45247</v>
       </c>
-      <c r="P122">
-        <v>19.670000000000002</v>
+      <c r="P122" s="2">
+        <f t="shared" si="1"/>
+        <v>19.666666666666668</v>
       </c>
       <c r="Q122">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s">
         <v>18</v>
@@ -8192,19 +8352,20 @@
       <c r="O123" s="1">
         <v>45247</v>
       </c>
-      <c r="P123">
-        <v>19.510000000000002</v>
+      <c r="P123" s="2">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
       </c>
       <c r="Q123">
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C124" t="s">
         <v>32</v>
@@ -8245,16 +8406,17 @@
       <c r="O124" s="1">
         <v>45247</v>
       </c>
-      <c r="P124">
-        <v>19.350000000000001</v>
+      <c r="P124" s="2">
+        <f t="shared" si="1"/>
+        <v>19.333333333333332</v>
       </c>
       <c r="Q124">
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
         <v>18</v>
@@ -8298,19 +8460,20 @@
       <c r="O125" s="1">
         <v>45247</v>
       </c>
-      <c r="P125">
-        <v>19.04</v>
+      <c r="P125" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="Q125">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C126" t="s">
         <v>24</v>
@@ -8351,19 +8514,20 @@
       <c r="O126" s="1">
         <v>45247</v>
       </c>
-      <c r="P126">
-        <v>18.77</v>
+      <c r="P126" s="2">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
       </c>
       <c r="Q126">
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -8404,16 +8568,17 @@
       <c r="O127" s="1">
         <v>43590</v>
       </c>
-      <c r="P127">
-        <v>14.01</v>
+      <c r="P127" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="Q127">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -8457,16 +8622,17 @@
       <c r="O128" s="1">
         <v>45247</v>
       </c>
-      <c r="P128">
-        <v>18.510000000000002</v>
+      <c r="P128" s="2">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
       </c>
       <c r="Q128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -8505,16 +8671,20 @@
         <v>38621</v>
       </c>
       <c r="O129" s="1"/>
+      <c r="P129" s="2">
+        <f t="shared" si="1"/>
+        <v>-105.66666666666667</v>
+      </c>
       <c r="Q129">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C130" t="s">
         <v>24</v>
@@ -8550,11 +8720,15 @@
         <v>38638</v>
       </c>
       <c r="O130" s="1"/>
+      <c r="P130" s="2">
+        <f t="shared" si="1"/>
+        <v>-105.75</v>
+      </c>
       <c r="Q130">
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17">
       <c r="A131" t="s">
         <v>176</v>
       </c>
@@ -8595,11 +8769,15 @@
         <v>38644</v>
       </c>
       <c r="O131" s="1"/>
+      <c r="P131" s="2">
+        <f t="shared" ref="P131:P194" si="2">((YEAR(O131)-YEAR(M131))*12+MONTH(O131)-MONTH(M131))/12</f>
+        <v>-105.75</v>
+      </c>
       <c r="Q131">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>177</v>
       </c>
@@ -8640,11 +8818,15 @@
         <v>38652</v>
       </c>
       <c r="O132" s="1"/>
+      <c r="P132" s="2">
+        <f t="shared" si="2"/>
+        <v>-105.75</v>
+      </c>
       <c r="Q132">
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -8685,11 +8867,15 @@
         <v>38672</v>
       </c>
       <c r="O133" s="1"/>
+      <c r="P133" s="2">
+        <f t="shared" si="2"/>
+        <v>-105.83333333333333</v>
+      </c>
       <c r="Q133">
         <v>12.5</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -8730,11 +8916,15 @@
         <v>38707</v>
       </c>
       <c r="O134" s="1"/>
+      <c r="P134" s="2">
+        <f t="shared" si="2"/>
+        <v>-105.91666666666667</v>
+      </c>
       <c r="Q134">
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -8775,11 +8965,15 @@
         <v>38787</v>
       </c>
       <c r="O135" s="1"/>
+      <c r="P135" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.16666666666667</v>
+      </c>
       <c r="Q135">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -8820,11 +9014,15 @@
         <v>38861</v>
       </c>
       <c r="O136" s="1"/>
+      <c r="P136" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.33333333333333</v>
+      </c>
       <c r="Q136">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
         <v>183</v>
       </c>
@@ -8865,16 +9063,20 @@
         <v>38864</v>
       </c>
       <c r="O137" s="1"/>
+      <c r="P137" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.33333333333333</v>
+      </c>
       <c r="Q137">
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
         <v>184</v>
       </c>
       <c r="B138" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
         <v>32</v>
@@ -8910,16 +9112,20 @@
         <v>38940</v>
       </c>
       <c r="O138" s="1"/>
+      <c r="P138" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.58333333333333</v>
+      </c>
       <c r="Q138">
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
         <v>185</v>
       </c>
       <c r="B139" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C139" t="s">
         <v>24</v>
@@ -8955,11 +9161,15 @@
         <v>38940</v>
       </c>
       <c r="O139" s="1"/>
+      <c r="P139" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.58333333333333</v>
+      </c>
       <c r="Q139">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
         <v>186</v>
       </c>
@@ -9000,11 +9210,15 @@
         <v>39003</v>
       </c>
       <c r="O140" s="1"/>
+      <c r="P140" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.75</v>
+      </c>
       <c r="Q140">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -9045,11 +9259,15 @@
         <v>39012</v>
       </c>
       <c r="O141" s="1"/>
+      <c r="P141" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.75</v>
+      </c>
       <c r="Q141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17">
       <c r="A142" t="s">
         <v>188</v>
       </c>
@@ -9090,11 +9308,15 @@
         <v>39025</v>
       </c>
       <c r="O142" s="1"/>
+      <c r="P142" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.83333333333333</v>
+      </c>
       <c r="Q142">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17">
       <c r="A143" t="s">
         <v>189</v>
       </c>
@@ -9135,11 +9357,15 @@
         <v>39029</v>
       </c>
       <c r="O143" s="1"/>
+      <c r="P143" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.83333333333333</v>
+      </c>
       <c r="Q143">
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17">
       <c r="A144" t="s">
         <v>190</v>
       </c>
@@ -9180,11 +9406,15 @@
         <v>39059</v>
       </c>
       <c r="O144" s="1"/>
+      <c r="P144" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.91666666666667</v>
+      </c>
       <c r="Q144">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17">
       <c r="A145" t="s">
         <v>191</v>
       </c>
@@ -9225,11 +9455,15 @@
         <v>39059</v>
       </c>
       <c r="O145" s="1"/>
+      <c r="P145" s="2">
+        <f t="shared" si="2"/>
+        <v>-106.91666666666667</v>
+      </c>
       <c r="Q145">
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17">
       <c r="A146" t="s">
         <v>192</v>
       </c>
@@ -9270,11 +9504,15 @@
         <v>39130</v>
       </c>
       <c r="O146" s="1"/>
+      <c r="P146" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.08333333333333</v>
+      </c>
       <c r="Q146">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17">
       <c r="A147" t="s">
         <v>193</v>
       </c>
@@ -9315,11 +9553,15 @@
         <v>39130</v>
       </c>
       <c r="O147" s="1"/>
+      <c r="P147" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.08333333333333</v>
+      </c>
       <c r="Q147">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17">
       <c r="A148" t="s">
         <v>194</v>
       </c>
@@ -9360,11 +9602,15 @@
         <v>39130</v>
       </c>
       <c r="O148" s="1"/>
+      <c r="P148" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.08333333333333</v>
+      </c>
       <c r="Q148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17">
       <c r="A149" t="s">
         <v>195</v>
       </c>
@@ -9405,11 +9651,15 @@
         <v>39152</v>
       </c>
       <c r="O149" s="1"/>
+      <c r="P149" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.16666666666667</v>
+      </c>
       <c r="Q149">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17">
       <c r="A150" t="s">
         <v>196</v>
       </c>
@@ -9450,11 +9700,15 @@
         <v>39197</v>
       </c>
       <c r="O150" s="1"/>
+      <c r="P150" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.25</v>
+      </c>
       <c r="Q150">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17">
       <c r="A151" t="s">
         <v>197</v>
       </c>
@@ -9495,11 +9749,15 @@
         <v>39231</v>
       </c>
       <c r="O151" s="1"/>
+      <c r="P151" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.33333333333333</v>
+      </c>
       <c r="Q151">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17">
       <c r="A152" t="s">
         <v>198</v>
       </c>
@@ -9540,11 +9798,15 @@
         <v>39231</v>
       </c>
       <c r="O152" s="1"/>
+      <c r="P152" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.33333333333333</v>
+      </c>
       <c r="Q152">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17">
       <c r="A153" t="s">
         <v>199</v>
       </c>
@@ -9585,11 +9847,15 @@
         <v>39231</v>
       </c>
       <c r="O153" s="1"/>
+      <c r="P153" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.33333333333333</v>
+      </c>
       <c r="Q153">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17">
       <c r="A154" t="s">
         <v>200</v>
       </c>
@@ -9630,11 +9896,15 @@
         <v>39231</v>
       </c>
       <c r="O154" s="1"/>
+      <c r="P154" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.33333333333333</v>
+      </c>
       <c r="Q154">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17">
       <c r="A155" t="s">
         <v>201</v>
       </c>
@@ -9675,11 +9945,15 @@
         <v>39270</v>
       </c>
       <c r="O155" s="1"/>
+      <c r="P155" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.5</v>
+      </c>
       <c r="Q155">
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17">
       <c r="A156" t="s">
         <v>202</v>
       </c>
@@ -9720,11 +9994,15 @@
         <v>39308</v>
       </c>
       <c r="O156" s="1"/>
+      <c r="P156" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.58333333333333</v>
+      </c>
       <c r="Q156">
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>203</v>
       </c>
@@ -9765,11 +10043,15 @@
         <v>39366</v>
       </c>
       <c r="O157" s="1"/>
+      <c r="P157" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.75</v>
+      </c>
       <c r="Q157">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>204</v>
       </c>
@@ -9810,11 +10092,15 @@
         <v>39372</v>
       </c>
       <c r="O158" s="1"/>
+      <c r="P158" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.75</v>
+      </c>
       <c r="Q158">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>205</v>
       </c>
@@ -9855,11 +10141,15 @@
         <v>39375</v>
       </c>
       <c r="O159" s="1"/>
+      <c r="P159" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.75</v>
+      </c>
       <c r="Q159">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17">
       <c r="A160" t="s">
         <v>206</v>
       </c>
@@ -9900,11 +10190,15 @@
         <v>39375</v>
       </c>
       <c r="O160" s="1"/>
+      <c r="P160" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.75</v>
+      </c>
       <c r="Q160">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17">
       <c r="A161" t="s">
         <v>207</v>
       </c>
@@ -9945,11 +10239,15 @@
         <v>39375</v>
       </c>
       <c r="O161" s="1"/>
+      <c r="P161" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.75</v>
+      </c>
       <c r="Q161">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17">
       <c r="A162" t="s">
         <v>208</v>
       </c>
@@ -9990,16 +10288,20 @@
         <v>39400</v>
       </c>
       <c r="O162" s="1"/>
+      <c r="P162" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.83333333333333</v>
+      </c>
       <c r="Q162">
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17">
       <c r="A163" t="s">
         <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C163" t="s">
         <v>32</v>
@@ -10035,11 +10337,15 @@
         <v>39400</v>
       </c>
       <c r="O163" s="1"/>
+      <c r="P163" s="2">
+        <f t="shared" si="2"/>
+        <v>-107.83333333333333</v>
+      </c>
       <c r="Q163">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17">
       <c r="A164" t="s">
         <v>210</v>
       </c>
@@ -10080,11 +10386,15 @@
         <v>39522</v>
       </c>
       <c r="O164" s="1"/>
+      <c r="P164" s="2">
+        <f t="shared" si="2"/>
+        <v>-108.16666666666667</v>
+      </c>
       <c r="Q164">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
         <v>211</v>
       </c>
@@ -10125,11 +10435,15 @@
         <v>39722</v>
       </c>
       <c r="O165" s="1"/>
+      <c r="P165" s="2">
+        <f t="shared" si="2"/>
+        <v>-108.75</v>
+      </c>
       <c r="Q165">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17">
       <c r="A166" t="s">
         <v>213</v>
       </c>
@@ -10170,11 +10484,15 @@
         <v>39802</v>
       </c>
       <c r="O166" s="1"/>
+      <c r="P166" s="2">
+        <f t="shared" si="2"/>
+        <v>-108.91666666666667</v>
+      </c>
       <c r="Q166">
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -10215,11 +10533,15 @@
         <v>39802</v>
       </c>
       <c r="O167" s="1"/>
+      <c r="P167" s="2">
+        <f t="shared" si="2"/>
+        <v>-108.91666666666667</v>
+      </c>
       <c r="Q167">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17">
       <c r="A168" t="s">
         <v>215</v>
       </c>
@@ -10260,16 +10582,20 @@
         <v>39855</v>
       </c>
       <c r="O168" s="1"/>
+      <c r="P168" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.08333333333333</v>
+      </c>
       <c r="Q168">
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17">
       <c r="A169" t="s">
         <v>216</v>
       </c>
       <c r="B169" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C169" t="s">
         <v>32</v>
@@ -10305,11 +10631,15 @@
         <v>39855</v>
       </c>
       <c r="O169" s="1"/>
+      <c r="P169" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.08333333333333</v>
+      </c>
       <c r="Q169">
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -10350,11 +10680,15 @@
         <v>39907</v>
       </c>
       <c r="O170" s="1"/>
+      <c r="P170" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.25</v>
+      </c>
       <c r="Q170">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -10395,11 +10729,15 @@
         <v>39991</v>
       </c>
       <c r="O171" s="1"/>
+      <c r="P171" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.41666666666667</v>
+      </c>
       <c r="Q171">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17">
       <c r="A172" t="s">
         <v>219</v>
       </c>
@@ -10440,11 +10778,15 @@
         <v>40042</v>
       </c>
       <c r="O172" s="1"/>
+      <c r="P172" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.58333333333333</v>
+      </c>
       <c r="Q172">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17">
       <c r="A173" t="s">
         <v>220</v>
       </c>
@@ -10485,16 +10827,20 @@
         <v>40104</v>
       </c>
       <c r="O173" s="1"/>
+      <c r="P173" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.75</v>
+      </c>
       <c r="Q173">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17">
       <c r="A174" t="s">
         <v>221</v>
       </c>
       <c r="B174" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C174" t="s">
         <v>32</v>
@@ -10530,11 +10876,15 @@
         <v>40115</v>
       </c>
       <c r="O174" s="1"/>
+      <c r="P174" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.75</v>
+      </c>
       <c r="Q174">
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -10575,11 +10925,15 @@
         <v>40119</v>
       </c>
       <c r="O175" s="1"/>
+      <c r="P175" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.83333333333333</v>
+      </c>
       <c r="Q175">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17">
       <c r="A176" t="s">
         <v>223</v>
       </c>
@@ -10620,11 +10974,15 @@
         <v>40140</v>
       </c>
       <c r="O176" s="1"/>
+      <c r="P176" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.83333333333333</v>
+      </c>
       <c r="Q176">
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17">
       <c r="A177" t="s">
         <v>224</v>
       </c>
@@ -10665,11 +11023,15 @@
         <v>40153</v>
       </c>
       <c r="O177" s="1"/>
+      <c r="P177" s="2">
+        <f t="shared" si="2"/>
+        <v>-109.91666666666667</v>
+      </c>
       <c r="Q177">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17">
       <c r="A178" t="s">
         <v>225</v>
       </c>
@@ -10710,11 +11072,15 @@
         <v>40220</v>
       </c>
       <c r="O178" s="1"/>
+      <c r="P178" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.08333333333333</v>
+      </c>
       <c r="Q178">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17">
       <c r="A179" t="s">
         <v>226</v>
       </c>
@@ -10755,11 +11121,15 @@
         <v>40241</v>
       </c>
       <c r="O179" s="1"/>
+      <c r="P179" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.16666666666667</v>
+      </c>
       <c r="Q179">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17">
       <c r="A180" t="s">
         <v>227</v>
       </c>
@@ -10800,11 +11170,15 @@
         <v>40257</v>
       </c>
       <c r="O180" s="1"/>
+      <c r="P180" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.16666666666667</v>
+      </c>
       <c r="Q180">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17">
       <c r="A181" t="s">
         <v>228</v>
       </c>
@@ -10845,11 +11219,15 @@
         <v>40292</v>
       </c>
       <c r="O181" s="1"/>
+      <c r="P181" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.25</v>
+      </c>
       <c r="Q181">
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17">
       <c r="A182" t="s">
         <v>229</v>
       </c>
@@ -10890,11 +11268,15 @@
         <v>40390</v>
       </c>
       <c r="O182" s="1"/>
+      <c r="P182" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.5</v>
+      </c>
       <c r="Q182">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17">
       <c r="A183" t="s">
         <v>230</v>
       </c>
@@ -10935,11 +11317,15 @@
         <v>40394</v>
       </c>
       <c r="O183" s="1"/>
+      <c r="P183" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.58333333333333</v>
+      </c>
       <c r="Q183">
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17">
       <c r="A184" t="s">
         <v>232</v>
       </c>
@@ -10980,16 +11366,20 @@
         <v>40394</v>
       </c>
       <c r="O184" s="1"/>
+      <c r="P184" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.58333333333333</v>
+      </c>
       <c r="Q184">
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17">
       <c r="A185" t="s">
         <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C185" t="s">
         <v>32</v>
@@ -11025,11 +11415,15 @@
         <v>40479</v>
       </c>
       <c r="O185" s="1"/>
+      <c r="P185" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.75</v>
+      </c>
       <c r="Q185">
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17">
       <c r="A186" t="s">
         <v>234</v>
       </c>
@@ -11070,11 +11464,15 @@
         <v>40496</v>
       </c>
       <c r="O186" s="1"/>
+      <c r="P186" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.83333333333333</v>
+      </c>
       <c r="Q186">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17">
       <c r="A187" t="s">
         <v>235</v>
       </c>
@@ -11115,11 +11513,15 @@
         <v>40508</v>
       </c>
       <c r="O187" s="1"/>
+      <c r="P187" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.83333333333333</v>
+      </c>
       <c r="Q187">
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17">
       <c r="A188" t="s">
         <v>236</v>
       </c>
@@ -11160,11 +11562,15 @@
         <v>40529</v>
       </c>
       <c r="O188" s="1"/>
+      <c r="P188" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.91666666666667</v>
+      </c>
       <c r="Q188">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17">
       <c r="A189" t="s">
         <v>237</v>
       </c>
@@ -11205,16 +11611,20 @@
         <v>40538</v>
       </c>
       <c r="O189" s="1"/>
+      <c r="P189" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.91666666666667</v>
+      </c>
       <c r="Q189">
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17">
       <c r="A190" t="s">
         <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C190" t="s">
         <v>32</v>
@@ -11250,11 +11660,15 @@
         <v>40541</v>
       </c>
       <c r="O190" s="1"/>
+      <c r="P190" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.91666666666667</v>
+      </c>
       <c r="Q190">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17">
       <c r="A191" t="s">
         <v>239</v>
       </c>
@@ -11295,11 +11709,15 @@
         <v>40541</v>
       </c>
       <c r="O191" s="1"/>
+      <c r="P191" s="2">
+        <f t="shared" si="2"/>
+        <v>-110.91666666666667</v>
+      </c>
       <c r="Q191">
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17">
       <c r="A192" t="s">
         <v>241</v>
       </c>
@@ -11339,12 +11757,21 @@
       <c r="M192" s="1">
         <v>40563</v>
       </c>
-      <c r="O192" s="1"/>
+      <c r="N192" t="s">
+        <v>25</v>
+      </c>
+      <c r="O192" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P192" s="2">
+        <f t="shared" si="2"/>
+        <v>12.833333333333334</v>
+      </c>
       <c r="Q192">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17">
       <c r="A193" t="s">
         <v>242</v>
       </c>
@@ -11384,17 +11811,26 @@
       <c r="M193" s="1">
         <v>40655</v>
       </c>
-      <c r="O193" s="1"/>
+      <c r="N193" t="s">
+        <v>25</v>
+      </c>
+      <c r="O193" s="3">
+        <v>45247</v>
+      </c>
+      <c r="P193" s="2">
+        <f t="shared" si="2"/>
+        <v>12.583333333333334</v>
+      </c>
       <c r="Q193">
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17">
       <c r="A194" t="s">
         <v>243</v>
       </c>
       <c r="B194" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C194" t="s">
         <v>19</v>
@@ -11429,17 +11865,26 @@
       <c r="M194" s="1">
         <v>40683</v>
       </c>
-      <c r="O194" s="1"/>
+      <c r="N194" t="s">
+        <v>25</v>
+      </c>
+      <c r="O194" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P194" s="2">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
       <c r="Q194">
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17">
       <c r="A195" t="s">
         <v>244</v>
       </c>
       <c r="B195" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C195" t="s">
         <v>32</v>
@@ -11474,17 +11919,26 @@
       <c r="M195" s="1">
         <v>40683</v>
       </c>
-      <c r="O195" s="1"/>
+      <c r="N195" t="s">
+        <v>25</v>
+      </c>
+      <c r="O195" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P195" s="2">
+        <f t="shared" ref="P195:P258" si="3">((YEAR(O195)-YEAR(M195))*12+MONTH(O195)-MONTH(M195))/12</f>
+        <v>12.5</v>
+      </c>
       <c r="Q195">
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17">
       <c r="A196" t="s">
         <v>245</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C196" t="s">
         <v>19</v>
@@ -11519,12 +11973,21 @@
       <c r="M196" s="1">
         <v>40739</v>
       </c>
-      <c r="O196" s="1"/>
+      <c r="N196" t="s">
+        <v>22</v>
+      </c>
+      <c r="O196" s="1">
+        <v>45008</v>
+      </c>
+      <c r="P196" s="2">
+        <f t="shared" si="3"/>
+        <v>11.666666666666666</v>
+      </c>
       <c r="Q196">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17">
       <c r="A197" t="s">
         <v>246</v>
       </c>
@@ -11564,12 +12027,21 @@
       <c r="M197" s="1">
         <v>40750</v>
       </c>
-      <c r="O197" s="1"/>
+      <c r="N197" t="s">
+        <v>25</v>
+      </c>
+      <c r="O197" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P197" s="2">
+        <f t="shared" si="3"/>
+        <v>12.333333333333334</v>
+      </c>
       <c r="Q197">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17">
       <c r="A198" t="s">
         <v>247</v>
       </c>
@@ -11609,12 +12081,21 @@
       <c r="M198" s="1">
         <v>40766</v>
       </c>
-      <c r="O198" s="1"/>
+      <c r="N198" t="s">
+        <v>25</v>
+      </c>
+      <c r="O198" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P198" s="2">
+        <f t="shared" si="3"/>
+        <v>12.25</v>
+      </c>
       <c r="Q198">
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17">
       <c r="A199" t="s">
         <v>249</v>
       </c>
@@ -11654,12 +12135,21 @@
       <c r="M199" s="1">
         <v>40878</v>
       </c>
-      <c r="O199" s="1"/>
+      <c r="N199" t="s">
+        <v>25</v>
+      </c>
+      <c r="O199" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P199" s="2">
+        <f t="shared" si="3"/>
+        <v>11.916666666666666</v>
+      </c>
       <c r="Q199">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17">
       <c r="A200" t="s">
         <v>250</v>
       </c>
@@ -11699,12 +12189,21 @@
       <c r="M200" s="1">
         <v>40920</v>
       </c>
-      <c r="O200" s="1"/>
+      <c r="N200" t="s">
+        <v>22</v>
+      </c>
+      <c r="O200" s="1">
+        <v>44652</v>
+      </c>
+      <c r="P200" s="2">
+        <f t="shared" si="3"/>
+        <v>10.25</v>
+      </c>
       <c r="Q200">
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17">
       <c r="A201" t="s">
         <v>251</v>
       </c>
@@ -11744,17 +12243,26 @@
       <c r="M201" s="1">
         <v>40928</v>
       </c>
-      <c r="O201" s="1"/>
+      <c r="N201" t="s">
+        <v>25</v>
+      </c>
+      <c r="O201" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P201" s="2">
+        <f t="shared" si="3"/>
+        <v>11.833333333333334</v>
+      </c>
       <c r="Q201">
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17">
       <c r="A202" t="s">
         <v>252</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C202" t="s">
         <v>19</v>
@@ -11789,12 +12297,21 @@
       <c r="M202" s="1">
         <v>41046</v>
       </c>
-      <c r="O202" s="1"/>
+      <c r="N202" t="s">
+        <v>25</v>
+      </c>
+      <c r="O202" s="1">
+        <v>44378</v>
+      </c>
+      <c r="P202" s="2">
+        <f t="shared" si="3"/>
+        <v>9.1666666666666661</v>
+      </c>
       <c r="Q202">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17">
       <c r="A203" t="s">
         <v>254</v>
       </c>
@@ -11834,12 +12351,21 @@
       <c r="M203" s="1">
         <v>41112</v>
       </c>
-      <c r="O203" s="1"/>
+      <c r="N203" t="s">
+        <v>25</v>
+      </c>
+      <c r="O203" s="1">
+        <v>45230</v>
+      </c>
+      <c r="P203" s="2">
+        <f t="shared" si="3"/>
+        <v>11.25</v>
+      </c>
       <c r="Q203">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17">
       <c r="A204" t="s">
         <v>256</v>
       </c>
@@ -11879,12 +12405,21 @@
       <c r="M204" s="1">
         <v>41112</v>
       </c>
-      <c r="O204" s="1"/>
+      <c r="N204" t="s">
+        <v>25</v>
+      </c>
+      <c r="O204" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P204" s="2">
+        <f t="shared" si="3"/>
+        <v>11.333333333333334</v>
+      </c>
       <c r="Q204">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -11924,12 +12459,21 @@
       <c r="M205" s="1">
         <v>41123</v>
       </c>
-      <c r="O205" s="1"/>
+      <c r="N205" t="s">
+        <v>25</v>
+      </c>
+      <c r="O205" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P205" s="2">
+        <f t="shared" si="3"/>
+        <v>11.25</v>
+      </c>
       <c r="Q205">
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -11969,12 +12513,21 @@
       <c r="M206" s="1">
         <v>41123</v>
       </c>
-      <c r="O206" s="1"/>
+      <c r="N206" t="s">
+        <v>25</v>
+      </c>
+      <c r="O206" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P206" s="2">
+        <f t="shared" si="3"/>
+        <v>11.25</v>
+      </c>
       <c r="Q206">
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -12014,12 +12567,21 @@
       <c r="M207" s="1">
         <v>41140</v>
       </c>
-      <c r="O207" s="1"/>
+      <c r="N207" t="s">
+        <v>25</v>
+      </c>
+      <c r="O207" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P207" s="2">
+        <f t="shared" si="3"/>
+        <v>11.25</v>
+      </c>
       <c r="Q207">
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17">
       <c r="A208" t="s">
         <v>261</v>
       </c>
@@ -12059,17 +12621,26 @@
       <c r="M208" s="1">
         <v>41180</v>
       </c>
-      <c r="O208" s="1"/>
+      <c r="N208" t="s">
+        <v>25</v>
+      </c>
+      <c r="O208" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P208" s="2">
+        <f t="shared" si="3"/>
+        <v>11.166666666666666</v>
+      </c>
       <c r="Q208">
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17">
       <c r="A209" t="s">
         <v>262</v>
       </c>
       <c r="B209" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C209" t="s">
         <v>19</v>
@@ -12104,12 +12675,21 @@
       <c r="M209" s="1">
         <v>41180</v>
       </c>
-      <c r="O209" s="1"/>
+      <c r="N209" t="s">
+        <v>25</v>
+      </c>
+      <c r="O209" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P209" s="2">
+        <f t="shared" si="3"/>
+        <v>11.166666666666666</v>
+      </c>
       <c r="Q209">
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17">
       <c r="A210" t="s">
         <v>263</v>
       </c>
@@ -12149,12 +12729,21 @@
       <c r="M210" s="1">
         <v>41196</v>
       </c>
-      <c r="O210" s="1"/>
+      <c r="N210" t="s">
+        <v>25</v>
+      </c>
+      <c r="O210" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P210" s="2">
+        <f t="shared" si="3"/>
+        <v>11.083333333333334</v>
+      </c>
       <c r="Q210">
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17">
       <c r="A211" t="s">
         <v>264</v>
       </c>
@@ -12194,12 +12783,21 @@
       <c r="M211" s="1">
         <v>41207</v>
       </c>
-      <c r="O211" s="1"/>
+      <c r="N211" t="s">
+        <v>25</v>
+      </c>
+      <c r="O211" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P211" s="2">
+        <f t="shared" si="3"/>
+        <v>11.083333333333334</v>
+      </c>
       <c r="Q211">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17">
       <c r="A212" t="s">
         <v>265</v>
       </c>
@@ -12239,17 +12837,26 @@
       <c r="M212" s="1">
         <v>41223</v>
       </c>
-      <c r="O212" s="1"/>
+      <c r="N212" t="s">
+        <v>25</v>
+      </c>
+      <c r="O212" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P212" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="Q212">
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:17">
       <c r="A213" t="s">
         <v>266</v>
       </c>
       <c r="B213" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C213" t="s">
         <v>32</v>
@@ -12284,12 +12891,21 @@
       <c r="M213" s="1">
         <v>41223</v>
       </c>
-      <c r="O213" s="1"/>
+      <c r="N213" t="s">
+        <v>25</v>
+      </c>
+      <c r="O213" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P213" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="Q213">
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17">
       <c r="A214" t="s">
         <v>267</v>
       </c>
@@ -12329,12 +12945,21 @@
       <c r="M214" s="1">
         <v>41233</v>
       </c>
-      <c r="O214" s="1"/>
+      <c r="N214" t="s">
+        <v>25</v>
+      </c>
+      <c r="O214" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P214" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="Q214">
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17">
       <c r="A215" t="s">
         <v>268</v>
       </c>
@@ -12374,17 +12999,26 @@
       <c r="M215" s="1">
         <v>41305</v>
       </c>
-      <c r="O215" s="1"/>
+      <c r="N215" t="s">
+        <v>25</v>
+      </c>
+      <c r="O215" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P215" s="2">
+        <f t="shared" si="3"/>
+        <v>10.833333333333334</v>
+      </c>
       <c r="Q215">
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17">
       <c r="A216" t="s">
         <v>269</v>
       </c>
       <c r="B216" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C216" t="s">
         <v>32</v>
@@ -12419,12 +13053,21 @@
       <c r="M216" s="1">
         <v>41312</v>
       </c>
-      <c r="O216" s="1"/>
+      <c r="N216" t="s">
+        <v>25</v>
+      </c>
+      <c r="O216" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P216" s="2">
+        <f t="shared" si="3"/>
+        <v>10.75</v>
+      </c>
       <c r="Q216">
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17">
       <c r="A217" t="s">
         <v>270</v>
       </c>
@@ -12464,12 +13107,21 @@
       <c r="M217" s="1">
         <v>41312</v>
       </c>
-      <c r="O217" s="1"/>
+      <c r="N217" t="s">
+        <v>25</v>
+      </c>
+      <c r="O217" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P217" s="2">
+        <f t="shared" si="3"/>
+        <v>10.75</v>
+      </c>
       <c r="Q217">
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -12509,12 +13161,21 @@
       <c r="M218" s="1">
         <v>41316</v>
       </c>
-      <c r="O218" s="1"/>
+      <c r="N218" t="s">
+        <v>25</v>
+      </c>
+      <c r="O218" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P218" s="2">
+        <f t="shared" si="3"/>
+        <v>10.75</v>
+      </c>
       <c r="Q218">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17">
       <c r="A219" t="s">
         <v>273</v>
       </c>
@@ -12554,12 +13215,21 @@
       <c r="M219" s="1">
         <v>41359</v>
       </c>
-      <c r="O219" s="1"/>
+      <c r="N219" t="s">
+        <v>25</v>
+      </c>
+      <c r="O219" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P219" s="2">
+        <f t="shared" si="3"/>
+        <v>10.666666666666666</v>
+      </c>
       <c r="Q219">
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17">
       <c r="A220" t="s">
         <v>274</v>
       </c>
@@ -12599,12 +13269,21 @@
       <c r="M220" s="1">
         <v>41419</v>
       </c>
-      <c r="O220" s="1"/>
+      <c r="N220" t="s">
+        <v>25</v>
+      </c>
+      <c r="O220" s="1">
+        <v>45247</v>
+      </c>
+      <c r="P220" s="2">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
       <c r="Q220">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17">
       <c r="A221" t="s">
         <v>275</v>
       </c>
@@ -12644,17 +13323,23 @@
       <c r="M221" s="1">
         <v>41453</v>
       </c>
-      <c r="O221" s="1"/>
+      <c r="N221" t="s">
+        <v>25</v>
+      </c>
+      <c r="P221" s="2">
+        <f>((YEAR(O226)-YEAR(M221))*12+MONTH(O226)-MONTH(M221))/12</f>
+        <v>-113.41666666666667</v>
+      </c>
       <c r="Q221">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17">
       <c r="A222" t="s">
         <v>276</v>
       </c>
       <c r="B222" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C222" t="s">
         <v>19</v>
@@ -12689,12 +13374,19 @@
       <c r="M222" s="1">
         <v>41456</v>
       </c>
+      <c r="N222" t="s">
+        <v>25</v>
+      </c>
       <c r="O222" s="1"/>
+      <c r="P222" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.5</v>
+      </c>
       <c r="Q222">
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17">
       <c r="A223" t="s">
         <v>277</v>
       </c>
@@ -12734,12 +13426,19 @@
       <c r="M223" s="1">
         <v>41480</v>
       </c>
+      <c r="N223" t="s">
+        <v>25</v>
+      </c>
       <c r="O223" s="1"/>
+      <c r="P223" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.5</v>
+      </c>
       <c r="Q223">
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17">
       <c r="A224" t="s">
         <v>278</v>
       </c>
@@ -12779,12 +13478,19 @@
       <c r="M224" s="1">
         <v>41494</v>
       </c>
+      <c r="N224" t="s">
+        <v>25</v>
+      </c>
       <c r="O224" s="1"/>
+      <c r="P224" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.58333333333333</v>
+      </c>
       <c r="Q224">
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17">
       <c r="A225" t="s">
         <v>279</v>
       </c>
@@ -12824,12 +13530,19 @@
       <c r="M225" s="1">
         <v>41514</v>
       </c>
+      <c r="N225" t="s">
+        <v>25</v>
+      </c>
       <c r="O225" s="1"/>
+      <c r="P225" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.58333333333333</v>
+      </c>
       <c r="Q225">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17">
       <c r="A226" t="s">
         <v>280</v>
       </c>
@@ -12869,12 +13582,15 @@
       <c r="M226" s="1">
         <v>41572</v>
       </c>
-      <c r="O226" s="1"/>
+      <c r="N226" t="s">
+        <v>25</v>
+      </c>
+      <c r="O226" s="3"/>
       <c r="Q226">
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17">
       <c r="A227" t="s">
         <v>281</v>
       </c>
@@ -12915,11 +13631,15 @@
         <v>41600</v>
       </c>
       <c r="O227" s="1"/>
+      <c r="P227" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.83333333333333</v>
+      </c>
       <c r="Q227">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17">
       <c r="A228" t="s">
         <v>282</v>
       </c>
@@ -12960,11 +13680,15 @@
         <v>41600</v>
       </c>
       <c r="O228" s="1"/>
+      <c r="P228" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.83333333333333</v>
+      </c>
       <c r="Q228">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17">
       <c r="A229" t="s">
         <v>283</v>
       </c>
@@ -13005,11 +13729,15 @@
         <v>41600</v>
       </c>
       <c r="O229" s="1"/>
+      <c r="P229" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.83333333333333</v>
+      </c>
       <c r="Q229">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17">
       <c r="A230" t="s">
         <v>284</v>
       </c>
@@ -13050,11 +13778,15 @@
         <v>41616</v>
       </c>
       <c r="O230" s="1"/>
+      <c r="P230" s="2">
+        <f t="shared" si="3"/>
+        <v>-113.91666666666667</v>
+      </c>
       <c r="Q230">
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17">
       <c r="A231" t="s">
         <v>285</v>
       </c>
@@ -13095,11 +13827,15 @@
         <v>41662</v>
       </c>
       <c r="O231" s="1"/>
+      <c r="P231" s="2">
+        <f t="shared" si="3"/>
+        <v>-114</v>
+      </c>
       <c r="Q231">
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17">
       <c r="A232" t="s">
         <v>286</v>
       </c>
@@ -13140,16 +13876,20 @@
         <v>41732</v>
       </c>
       <c r="O232" s="1"/>
+      <c r="P232" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.25</v>
+      </c>
       <c r="Q232">
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17">
       <c r="A233" t="s">
         <v>287</v>
       </c>
       <c r="B233" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C233" t="s">
         <v>19</v>
@@ -13185,11 +13925,15 @@
         <v>41733</v>
       </c>
       <c r="O233" s="1"/>
+      <c r="P233" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.25</v>
+      </c>
       <c r="Q233">
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17">
       <c r="A234" t="s">
         <v>288</v>
       </c>
@@ -13230,11 +13974,15 @@
         <v>41757</v>
       </c>
       <c r="O234" s="1"/>
+      <c r="P234" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.25</v>
+      </c>
       <c r="Q234">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17">
       <c r="A235" t="s">
         <v>289</v>
       </c>
@@ -13275,11 +14023,15 @@
         <v>41873</v>
       </c>
       <c r="O235" s="1"/>
+      <c r="P235" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.58333333333333</v>
+      </c>
       <c r="Q235">
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17">
       <c r="A236" t="s">
         <v>290</v>
       </c>
@@ -13320,16 +14072,20 @@
         <v>41873</v>
       </c>
       <c r="O236" s="1"/>
+      <c r="P236" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.58333333333333</v>
+      </c>
       <c r="Q236">
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17">
       <c r="A237" t="s">
         <v>291</v>
       </c>
       <c r="B237" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C237" t="s">
         <v>19</v>
@@ -13365,16 +14121,20 @@
         <v>41919</v>
       </c>
       <c r="O237" s="1"/>
+      <c r="P237" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.75</v>
+      </c>
       <c r="Q237">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17">
       <c r="A238" t="s">
         <v>292</v>
       </c>
       <c r="B238" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C238" t="s">
         <v>19</v>
@@ -13410,11 +14170,15 @@
         <v>41927</v>
       </c>
       <c r="O238" s="1"/>
+      <c r="P238" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.75</v>
+      </c>
       <c r="Q238">
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -13455,11 +14219,15 @@
         <v>41933</v>
       </c>
       <c r="O239" s="1"/>
+      <c r="P239" s="2">
+        <f t="shared" si="3"/>
+        <v>-114.75</v>
+      </c>
       <c r="Q239">
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17">
       <c r="A240" t="s">
         <v>294</v>
       </c>
@@ -13500,16 +14268,20 @@
         <v>42036</v>
       </c>
       <c r="O240" s="1"/>
+      <c r="P240" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.08333333333333</v>
+      </c>
       <c r="Q240">
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17">
       <c r="A241" t="s">
         <v>295</v>
       </c>
       <c r="B241" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C241" t="s">
         <v>19</v>
@@ -13545,11 +14317,15 @@
         <v>42093</v>
       </c>
       <c r="O241" s="1"/>
+      <c r="P241" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.16666666666667</v>
+      </c>
       <c r="Q241">
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17">
       <c r="A242" t="s">
         <v>296</v>
       </c>
@@ -13590,11 +14366,15 @@
         <v>42121</v>
       </c>
       <c r="O242" s="1"/>
+      <c r="P242" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.25</v>
+      </c>
       <c r="Q242">
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17">
       <c r="A243" t="s">
         <v>298</v>
       </c>
@@ -13635,11 +14415,15 @@
         <v>42151</v>
       </c>
       <c r="O243" s="1"/>
+      <c r="P243" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.33333333333333</v>
+      </c>
       <c r="Q243">
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17">
       <c r="A244" t="s">
         <v>299</v>
       </c>
@@ -13680,11 +14464,15 @@
         <v>42178</v>
       </c>
       <c r="O244" s="1"/>
+      <c r="P244" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.41666666666667</v>
+      </c>
       <c r="Q244">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17">
       <c r="A245" t="s">
         <v>300</v>
       </c>
@@ -13725,11 +14513,15 @@
         <v>42200</v>
       </c>
       <c r="O245" s="1"/>
+      <c r="P245" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.5</v>
+      </c>
       <c r="Q245">
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17">
       <c r="A246" t="s">
         <v>301</v>
       </c>
@@ -13770,11 +14562,15 @@
         <v>42209</v>
       </c>
       <c r="O246" s="1"/>
+      <c r="P246" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.5</v>
+      </c>
       <c r="Q246">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17">
       <c r="A247" t="s">
         <v>302</v>
       </c>
@@ -13815,11 +14611,15 @@
         <v>42210</v>
       </c>
       <c r="O247" s="1"/>
+      <c r="P247" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.5</v>
+      </c>
       <c r="Q247">
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17">
       <c r="A248" t="s">
         <v>303</v>
       </c>
@@ -13860,16 +14660,20 @@
         <v>42210</v>
       </c>
       <c r="O248" s="1"/>
+      <c r="P248" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.5</v>
+      </c>
       <c r="Q248">
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17">
       <c r="A249" t="s">
         <v>304</v>
       </c>
       <c r="B249" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C249" t="s">
         <v>19</v>
@@ -13905,11 +14709,15 @@
         <v>42243</v>
       </c>
       <c r="O249" s="1"/>
+      <c r="P249" s="2">
+        <f t="shared" si="3"/>
+        <v>-115.58333333333333</v>
+      </c>
       <c r="Q249">
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17">
       <c r="A250" t="s">
         <v>305</v>
       </c>
@@ -13950,16 +14758,20 @@
         <v>42386</v>
       </c>
       <c r="O250" s="1"/>
+      <c r="P250" s="2">
+        <f t="shared" si="3"/>
+        <v>-116</v>
+      </c>
       <c r="Q250">
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17">
       <c r="A251" t="s">
         <v>306</v>
       </c>
       <c r="B251" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C251" t="s">
         <v>19</v>
@@ -13995,11 +14807,15 @@
         <v>42389</v>
       </c>
       <c r="O251" s="1"/>
+      <c r="P251" s="2">
+        <f t="shared" si="3"/>
+        <v>-116</v>
+      </c>
       <c r="Q251">
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17">
       <c r="A252" t="s">
         <v>307</v>
       </c>
@@ -14040,11 +14856,15 @@
         <v>42416</v>
       </c>
       <c r="O252" s="1"/>
+      <c r="P252" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.08333333333333</v>
+      </c>
       <c r="Q252">
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17">
       <c r="A253" t="s">
         <v>308</v>
       </c>
@@ -14085,16 +14905,20 @@
         <v>42433</v>
       </c>
       <c r="O253" s="1"/>
+      <c r="P253" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.16666666666667</v>
+      </c>
       <c r="Q253">
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17">
       <c r="A254" t="s">
         <v>309</v>
       </c>
       <c r="B254" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C254" t="s">
         <v>19</v>
@@ -14130,11 +14954,15 @@
         <v>42439</v>
       </c>
       <c r="O254" s="1"/>
+      <c r="P254" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.16666666666667</v>
+      </c>
       <c r="Q254">
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17">
       <c r="A255" t="s">
         <v>310</v>
       </c>
@@ -14175,11 +15003,15 @@
         <v>42459</v>
       </c>
       <c r="O255" s="1"/>
+      <c r="P255" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.16666666666667</v>
+      </c>
       <c r="Q255">
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17">
       <c r="A256" t="s">
         <v>311</v>
       </c>
@@ -14220,16 +15052,20 @@
         <v>42485</v>
       </c>
       <c r="O256" s="1"/>
+      <c r="P256" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.25</v>
+      </c>
       <c r="Q256">
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17">
       <c r="A257" t="s">
         <v>312</v>
       </c>
       <c r="B257" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C257" t="s">
         <v>19</v>
@@ -14265,11 +15101,15 @@
         <v>42488</v>
       </c>
       <c r="O257" s="1"/>
+      <c r="P257" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.25</v>
+      </c>
       <c r="Q257">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17">
       <c r="A258" t="s">
         <v>313</v>
       </c>
@@ -14310,16 +15150,20 @@
         <v>42536</v>
       </c>
       <c r="O258" s="1"/>
+      <c r="P258" s="2">
+        <f t="shared" si="3"/>
+        <v>-116.41666666666667</v>
+      </c>
       <c r="Q258">
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17">
       <c r="A259" t="s">
         <v>314</v>
       </c>
       <c r="B259" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C259" t="s">
         <v>19</v>
@@ -14355,11 +15199,15 @@
         <v>42676</v>
       </c>
       <c r="O259" s="1"/>
+      <c r="P259" s="2">
+        <f t="shared" ref="P259:P322" si="4">((YEAR(O259)-YEAR(M259))*12+MONTH(O259)-MONTH(M259))/12</f>
+        <v>-116.83333333333333</v>
+      </c>
       <c r="Q259">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:17">
       <c r="A260" t="s">
         <v>315</v>
       </c>
@@ -14400,11 +15248,15 @@
         <v>42693</v>
       </c>
       <c r="O260" s="1"/>
+      <c r="P260" s="2">
+        <f t="shared" si="4"/>
+        <v>-116.83333333333333</v>
+      </c>
       <c r="Q260">
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:17">
       <c r="A261" t="s">
         <v>316</v>
       </c>
@@ -14445,11 +15297,15 @@
         <v>42711</v>
       </c>
       <c r="O261" s="1"/>
+      <c r="P261" s="2">
+        <f t="shared" si="4"/>
+        <v>-116.91666666666667</v>
+      </c>
       <c r="Q261">
         <v>14</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:17">
       <c r="A262" t="s">
         <v>317</v>
       </c>
@@ -14490,11 +15346,15 @@
         <v>42749</v>
       </c>
       <c r="O262" s="1"/>
+      <c r="P262" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q262">
         <v>15</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:17">
       <c r="A263" t="s">
         <v>318</v>
       </c>
@@ -14535,11 +15395,15 @@
         <v>42749</v>
       </c>
       <c r="O263" s="1"/>
+      <c r="P263" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q263">
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:17">
       <c r="A264" t="s">
         <v>319</v>
       </c>
@@ -14580,11 +15444,15 @@
         <v>42749</v>
       </c>
       <c r="O264" s="1"/>
+      <c r="P264" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q264">
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:17">
       <c r="A265" t="s">
         <v>320</v>
       </c>
@@ -14625,11 +15493,15 @@
         <v>42749</v>
       </c>
       <c r="O265" s="1"/>
+      <c r="P265" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q265">
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:17">
       <c r="A266" t="s">
         <v>321</v>
       </c>
@@ -14670,11 +15542,15 @@
         <v>42749</v>
       </c>
       <c r="O266" s="1"/>
+      <c r="P266" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q266">
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:17">
       <c r="A267" t="s">
         <v>322</v>
       </c>
@@ -14715,11 +15591,15 @@
         <v>42749</v>
       </c>
       <c r="O267" s="1"/>
+      <c r="P267" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q267">
         <v>15</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:17">
       <c r="A268" t="s">
         <v>323</v>
       </c>
@@ -14760,11 +15640,15 @@
         <v>42749</v>
       </c>
       <c r="O268" s="1"/>
+      <c r="P268" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q268">
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:17">
       <c r="A269" t="s">
         <v>324</v>
       </c>
@@ -14805,11 +15689,15 @@
         <v>42749</v>
       </c>
       <c r="O269" s="1"/>
+      <c r="P269" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q269">
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:17">
       <c r="A270" t="s">
         <v>325</v>
       </c>
@@ -14850,11 +15738,15 @@
         <v>42749</v>
       </c>
       <c r="O270" s="1"/>
+      <c r="P270" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q270">
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:17">
       <c r="A271" t="s">
         <v>326</v>
       </c>
@@ -14895,16 +15787,20 @@
         <v>42749</v>
       </c>
       <c r="O271" s="1"/>
+      <c r="P271" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q271">
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:17">
       <c r="A272" t="s">
         <v>327</v>
       </c>
       <c r="B272" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C272" t="s">
         <v>32</v>
@@ -14940,11 +15836,15 @@
         <v>42763</v>
       </c>
       <c r="O272" s="1"/>
+      <c r="P272" s="2">
+        <f t="shared" si="4"/>
+        <v>-117</v>
+      </c>
       <c r="Q272">
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:17">
       <c r="A273" t="s">
         <v>328</v>
       </c>
@@ -14985,11 +15885,15 @@
         <v>42811</v>
       </c>
       <c r="O273" s="1"/>
+      <c r="P273" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.16666666666667</v>
+      </c>
       <c r="Q273">
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:17">
       <c r="A274" t="s">
         <v>329</v>
       </c>
@@ -15030,11 +15934,15 @@
         <v>42824</v>
       </c>
       <c r="O274" s="1"/>
+      <c r="P274" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.16666666666667</v>
+      </c>
       <c r="Q274">
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:17">
       <c r="A275" t="s">
         <v>330</v>
       </c>
@@ -15075,11 +15983,15 @@
         <v>42911</v>
       </c>
       <c r="O275" s="1"/>
+      <c r="P275" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q275">
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:17">
       <c r="A276" t="s">
         <v>331</v>
       </c>
@@ -15120,11 +16032,15 @@
         <v>42911</v>
       </c>
       <c r="O276" s="1"/>
+      <c r="P276" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q276">
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:17">
       <c r="A277" t="s">
         <v>332</v>
       </c>
@@ -15165,11 +16081,15 @@
         <v>42911</v>
       </c>
       <c r="O277" s="1"/>
+      <c r="P277" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q277">
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:17">
       <c r="A278" t="s">
         <v>333</v>
       </c>
@@ -15210,11 +16130,15 @@
         <v>42911</v>
       </c>
       <c r="O278" s="1"/>
+      <c r="P278" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q278">
         <v>15</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:17">
       <c r="A279" t="s">
         <v>334</v>
       </c>
@@ -15255,11 +16179,15 @@
         <v>42911</v>
       </c>
       <c r="O279" s="1"/>
+      <c r="P279" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q279">
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17">
       <c r="A280" t="s">
         <v>335</v>
       </c>
@@ -15300,11 +16228,15 @@
         <v>42911</v>
       </c>
       <c r="O280" s="1"/>
+      <c r="P280" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q280">
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17">
       <c r="A281" t="s">
         <v>336</v>
       </c>
@@ -15345,11 +16277,15 @@
         <v>42911</v>
       </c>
       <c r="O281" s="1"/>
+      <c r="P281" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q281">
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17">
       <c r="A282" t="s">
         <v>337</v>
       </c>
@@ -15390,11 +16326,15 @@
         <v>42911</v>
       </c>
       <c r="O282" s="1"/>
+      <c r="P282" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q282">
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17">
       <c r="A283" t="s">
         <v>338</v>
       </c>
@@ -15435,11 +16375,15 @@
         <v>42911</v>
       </c>
       <c r="O283" s="1"/>
+      <c r="P283" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q283">
         <v>15</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17">
       <c r="A284" t="s">
         <v>339</v>
       </c>
@@ -15480,11 +16424,15 @@
         <v>42911</v>
       </c>
       <c r="O284" s="1"/>
+      <c r="P284" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.41666666666667</v>
+      </c>
       <c r="Q284">
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17">
       <c r="A285" t="s">
         <v>340</v>
       </c>
@@ -15525,11 +16473,15 @@
         <v>42965</v>
       </c>
       <c r="O285" s="1"/>
+      <c r="P285" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.58333333333333</v>
+      </c>
       <c r="Q285">
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17">
       <c r="A286" t="s">
         <v>341</v>
       </c>
@@ -15570,11 +16522,15 @@
         <v>43017</v>
       </c>
       <c r="O286" s="1"/>
+      <c r="P286" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q286">
         <v>15</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17">
       <c r="A287" t="s">
         <v>342</v>
       </c>
@@ -15615,11 +16571,15 @@
         <v>43017</v>
       </c>
       <c r="O287" s="1"/>
+      <c r="P287" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q287">
         <v>15</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17">
       <c r="A288" t="s">
         <v>343</v>
       </c>
@@ -15660,11 +16620,15 @@
         <v>43017</v>
       </c>
       <c r="O288" s="1"/>
+      <c r="P288" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q288">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17">
       <c r="A289" t="s">
         <v>344</v>
       </c>
@@ -15705,11 +16669,15 @@
         <v>43017</v>
       </c>
       <c r="O289" s="1"/>
+      <c r="P289" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q289">
         <v>15</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17">
       <c r="A290" t="s">
         <v>345</v>
       </c>
@@ -15750,11 +16718,15 @@
         <v>43017</v>
       </c>
       <c r="O290" s="1"/>
+      <c r="P290" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q290">
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17">
       <c r="A291" t="s">
         <v>346</v>
       </c>
@@ -15795,11 +16767,15 @@
         <v>43017</v>
       </c>
       <c r="O291" s="1"/>
+      <c r="P291" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q291">
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17">
       <c r="A292" t="s">
         <v>347</v>
       </c>
@@ -15840,11 +16816,15 @@
         <v>43017</v>
       </c>
       <c r="O292" s="1"/>
+      <c r="P292" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q292">
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17">
       <c r="A293" t="s">
         <v>348</v>
       </c>
@@ -15885,11 +16865,15 @@
         <v>43017</v>
       </c>
       <c r="O293" s="1"/>
+      <c r="P293" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q293">
         <v>15</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17">
       <c r="A294" t="s">
         <v>349</v>
       </c>
@@ -15930,11 +16914,15 @@
         <v>43017</v>
       </c>
       <c r="O294" s="1"/>
+      <c r="P294" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q294">
         <v>15</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17">
       <c r="A295" t="s">
         <v>350</v>
       </c>
@@ -15975,11 +16963,15 @@
         <v>43017</v>
       </c>
       <c r="O295" s="1"/>
+      <c r="P295" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.75</v>
+      </c>
       <c r="Q295">
         <v>15</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17">
       <c r="A296" t="s">
         <v>351</v>
       </c>
@@ -16020,11 +17012,15 @@
         <v>43044</v>
       </c>
       <c r="O296" s="1"/>
+      <c r="P296" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.83333333333333</v>
+      </c>
       <c r="Q296">
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17">
       <c r="A297" t="s">
         <v>352</v>
       </c>
@@ -16065,11 +17061,15 @@
         <v>43044</v>
       </c>
       <c r="O297" s="1"/>
+      <c r="P297" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.83333333333333</v>
+      </c>
       <c r="Q297">
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17">
       <c r="A298" t="s">
         <v>353</v>
       </c>
@@ -16110,11 +17110,15 @@
         <v>43092</v>
       </c>
       <c r="O298" s="1"/>
+      <c r="P298" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q298">
         <v>15</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17">
       <c r="A299" t="s">
         <v>354</v>
       </c>
@@ -16155,11 +17159,15 @@
         <v>43092</v>
       </c>
       <c r="O299" s="1"/>
+      <c r="P299" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q299">
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17">
       <c r="A300" t="s">
         <v>355</v>
       </c>
@@ -16200,11 +17208,15 @@
         <v>43092</v>
       </c>
       <c r="O300" s="1"/>
+      <c r="P300" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q300">
         <v>15</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17">
       <c r="A301" t="s">
         <v>356</v>
       </c>
@@ -16245,11 +17257,15 @@
         <v>43092</v>
       </c>
       <c r="O301" s="1"/>
+      <c r="P301" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q301">
         <v>15</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17">
       <c r="A302" t="s">
         <v>357</v>
       </c>
@@ -16290,11 +17306,15 @@
         <v>43092</v>
       </c>
       <c r="O302" s="1"/>
+      <c r="P302" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q302">
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17">
       <c r="A303" t="s">
         <v>358</v>
       </c>
@@ -16335,11 +17355,15 @@
         <v>43092</v>
       </c>
       <c r="O303" s="1"/>
+      <c r="P303" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q303">
         <v>15</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17">
       <c r="A304" t="s">
         <v>359</v>
       </c>
@@ -16380,11 +17404,15 @@
         <v>43092</v>
       </c>
       <c r="O304" s="1"/>
+      <c r="P304" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q304">
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17">
       <c r="A305" t="s">
         <v>360</v>
       </c>
@@ -16425,11 +17453,15 @@
         <v>43092</v>
       </c>
       <c r="O305" s="1"/>
+      <c r="P305" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q305">
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17">
       <c r="A306" t="s">
         <v>361</v>
       </c>
@@ -16470,11 +17502,15 @@
         <v>43092</v>
       </c>
       <c r="O306" s="1"/>
+      <c r="P306" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q306">
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17">
       <c r="A307" t="s">
         <v>362</v>
       </c>
@@ -16515,11 +17551,15 @@
         <v>43092</v>
       </c>
       <c r="O307" s="1"/>
+      <c r="P307" s="2">
+        <f t="shared" si="4"/>
+        <v>-117.91666666666667</v>
+      </c>
       <c r="Q307">
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17">
       <c r="A308" t="s">
         <v>363</v>
       </c>
@@ -16560,11 +17600,15 @@
         <v>43111</v>
       </c>
       <c r="O308" s="1"/>
+      <c r="P308" s="2">
+        <f t="shared" si="4"/>
+        <v>-118</v>
+      </c>
       <c r="Q308">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17">
       <c r="A309" t="s">
         <v>364</v>
       </c>
@@ -16605,11 +17649,15 @@
         <v>43111</v>
       </c>
       <c r="O309" s="1"/>
+      <c r="P309" s="2">
+        <f t="shared" si="4"/>
+        <v>-118</v>
+      </c>
       <c r="Q309">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17">
       <c r="A310" t="s">
         <v>365</v>
       </c>
@@ -16650,11 +17698,15 @@
         <v>43143</v>
       </c>
       <c r="O310" s="1"/>
+      <c r="P310" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.08333333333333</v>
+      </c>
       <c r="Q310">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17">
       <c r="A311" t="s">
         <v>366</v>
       </c>
@@ -16695,11 +17747,15 @@
         <v>43143</v>
       </c>
       <c r="O311" s="1"/>
+      <c r="P311" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.08333333333333</v>
+      </c>
       <c r="Q311">
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17">
       <c r="A312" t="s">
         <v>367</v>
       </c>
@@ -16740,11 +17796,15 @@
         <v>43160</v>
       </c>
       <c r="O312" s="1"/>
+      <c r="P312" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q312">
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17">
       <c r="A313" t="s">
         <v>368</v>
       </c>
@@ -16785,11 +17845,15 @@
         <v>43188</v>
       </c>
       <c r="O313" s="1"/>
+      <c r="P313" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q313">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17">
       <c r="A314" t="s">
         <v>369</v>
       </c>
@@ -16830,11 +17894,15 @@
         <v>43188</v>
       </c>
       <c r="O314" s="1"/>
+      <c r="P314" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q314">
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17">
       <c r="A315" t="s">
         <v>370</v>
       </c>
@@ -16875,11 +17943,15 @@
         <v>43189</v>
       </c>
       <c r="O315" s="1"/>
+      <c r="P315" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q315">
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17">
       <c r="A316" t="s">
         <v>371</v>
       </c>
@@ -16920,11 +17992,15 @@
         <v>43189</v>
       </c>
       <c r="O316" s="1"/>
+      <c r="P316" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q316">
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17">
       <c r="A317" t="s">
         <v>372</v>
       </c>
@@ -16965,11 +18041,15 @@
         <v>43189</v>
       </c>
       <c r="O317" s="1"/>
+      <c r="P317" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q317">
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17">
       <c r="A318" t="s">
         <v>373</v>
       </c>
@@ -17010,11 +18090,15 @@
         <v>43189</v>
       </c>
       <c r="O318" s="1"/>
+      <c r="P318" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q318">
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17">
       <c r="A319" t="s">
         <v>374</v>
       </c>
@@ -17055,11 +18139,15 @@
         <v>43189</v>
       </c>
       <c r="O319" s="1"/>
+      <c r="P319" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q319">
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17">
       <c r="A320" t="s">
         <v>375</v>
       </c>
@@ -17100,11 +18188,15 @@
         <v>43189</v>
       </c>
       <c r="O320" s="1"/>
+      <c r="P320" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q320">
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17">
       <c r="A321" t="s">
         <v>376</v>
       </c>
@@ -17145,11 +18237,15 @@
         <v>43189</v>
       </c>
       <c r="O321" s="1"/>
+      <c r="P321" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q321">
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17">
       <c r="A322" t="s">
         <v>377</v>
       </c>
@@ -17190,11 +18286,15 @@
         <v>43189</v>
       </c>
       <c r="O322" s="1"/>
+      <c r="P322" s="2">
+        <f t="shared" si="4"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q322">
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17">
       <c r="A323" t="s">
         <v>378</v>
       </c>
@@ -17235,11 +18335,15 @@
         <v>43189</v>
       </c>
       <c r="O323" s="1"/>
+      <c r="P323" s="2">
+        <f t="shared" ref="P323:P383" si="5">((YEAR(O323)-YEAR(M323))*12+MONTH(O323)-MONTH(M323))/12</f>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q323">
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:17">
       <c r="A324" t="s">
         <v>379</v>
       </c>
@@ -17280,16 +18384,20 @@
         <v>43189</v>
       </c>
       <c r="O324" s="1"/>
+      <c r="P324" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.16666666666667</v>
+      </c>
       <c r="Q324">
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:17">
       <c r="A325" t="s">
         <v>380</v>
       </c>
       <c r="B325" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C325" t="s">
         <v>19</v>
@@ -17325,11 +18433,15 @@
         <v>43201</v>
       </c>
       <c r="O325" s="1"/>
+      <c r="P325" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.25</v>
+      </c>
       <c r="Q325">
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:17">
       <c r="A326" t="s">
         <v>381</v>
       </c>
@@ -17370,11 +18482,15 @@
         <v>43242</v>
       </c>
       <c r="O326" s="1"/>
+      <c r="P326" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.33333333333333</v>
+      </c>
       <c r="Q326">
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:17">
       <c r="A327" t="s">
         <v>382</v>
       </c>
@@ -17415,11 +18531,15 @@
         <v>43242</v>
       </c>
       <c r="O327" s="1"/>
+      <c r="P327" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.33333333333333</v>
+      </c>
       <c r="Q327">
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:17">
       <c r="A328" t="s">
         <v>383</v>
       </c>
@@ -17460,11 +18580,15 @@
         <v>43242</v>
       </c>
       <c r="O328" s="1"/>
+      <c r="P328" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.33333333333333</v>
+      </c>
       <c r="Q328">
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:17">
       <c r="A329" t="s">
         <v>384</v>
       </c>
@@ -17505,11 +18629,15 @@
         <v>43242</v>
       </c>
       <c r="O329" s="1"/>
+      <c r="P329" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.33333333333333</v>
+      </c>
       <c r="Q329">
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:17">
       <c r="A330" t="s">
         <v>385</v>
       </c>
@@ -17550,11 +18678,15 @@
         <v>43242</v>
       </c>
       <c r="O330" s="1"/>
+      <c r="P330" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.33333333333333</v>
+      </c>
       <c r="Q330">
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:17">
       <c r="A331" t="s">
         <v>386</v>
       </c>
@@ -17595,11 +18727,15 @@
         <v>43290</v>
       </c>
       <c r="O331" s="1"/>
+      <c r="P331" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q331">
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:17">
       <c r="A332" t="s">
         <v>387</v>
       </c>
@@ -17640,11 +18776,15 @@
         <v>43306</v>
       </c>
       <c r="O332" s="1"/>
+      <c r="P332" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q332">
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:17">
       <c r="A333" t="s">
         <v>388</v>
       </c>
@@ -17685,11 +18825,15 @@
         <v>43306</v>
       </c>
       <c r="O333" s="1"/>
+      <c r="P333" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q333">
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:17">
       <c r="A334" t="s">
         <v>389</v>
       </c>
@@ -17730,11 +18874,15 @@
         <v>43306</v>
       </c>
       <c r="O334" s="1"/>
+      <c r="P334" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q334">
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:17">
       <c r="A335" t="s">
         <v>390</v>
       </c>
@@ -17775,11 +18923,15 @@
         <v>43306</v>
       </c>
       <c r="O335" s="1"/>
+      <c r="P335" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q335">
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:17">
       <c r="A336" t="s">
         <v>391</v>
       </c>
@@ -17820,11 +18972,15 @@
         <v>43306</v>
       </c>
       <c r="O336" s="1"/>
+      <c r="P336" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q336">
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17">
       <c r="A337" t="s">
         <v>392</v>
       </c>
@@ -17865,11 +19021,15 @@
         <v>43306</v>
       </c>
       <c r="O337" s="1"/>
+      <c r="P337" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q337">
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17">
       <c r="A338" t="s">
         <v>393</v>
       </c>
@@ -17910,11 +19070,15 @@
         <v>43306</v>
       </c>
       <c r="O338" s="1"/>
+      <c r="P338" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q338">
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17">
       <c r="A339" t="s">
         <v>394</v>
       </c>
@@ -17955,11 +19119,15 @@
         <v>43306</v>
       </c>
       <c r="O339" s="1"/>
+      <c r="P339" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q339">
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17">
       <c r="A340" t="s">
         <v>395</v>
       </c>
@@ -18000,11 +19168,15 @@
         <v>43306</v>
       </c>
       <c r="O340" s="1"/>
+      <c r="P340" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q340">
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17">
       <c r="A341" t="s">
         <v>396</v>
       </c>
@@ -18045,11 +19217,15 @@
         <v>43306</v>
       </c>
       <c r="O341" s="1"/>
+      <c r="P341" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q341">
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17">
       <c r="A342" t="s">
         <v>397</v>
       </c>
@@ -18090,11 +19266,15 @@
         <v>43310</v>
       </c>
       <c r="O342" s="1"/>
+      <c r="P342" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q342">
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17">
       <c r="A343" t="s">
         <v>398</v>
       </c>
@@ -18135,11 +19315,15 @@
         <v>43310</v>
       </c>
       <c r="O343" s="1"/>
+      <c r="P343" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.5</v>
+      </c>
       <c r="Q343">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17">
       <c r="A344" t="s">
         <v>399</v>
       </c>
@@ -18180,11 +19364,15 @@
         <v>43336</v>
       </c>
       <c r="O344" s="1"/>
+      <c r="P344" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.58333333333333</v>
+      </c>
       <c r="Q344">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17">
       <c r="A345" t="s">
         <v>400</v>
       </c>
@@ -18225,11 +19413,15 @@
         <v>43336</v>
       </c>
       <c r="O345" s="1"/>
+      <c r="P345" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.58333333333333</v>
+      </c>
       <c r="Q345">
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17">
       <c r="A346" t="s">
         <v>401</v>
       </c>
@@ -18270,11 +19462,15 @@
         <v>43362</v>
       </c>
       <c r="O346" s="1"/>
+      <c r="P346" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.66666666666667</v>
+      </c>
       <c r="Q346">
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17">
       <c r="A347" t="s">
         <v>402</v>
       </c>
@@ -18315,11 +19511,15 @@
         <v>43362</v>
       </c>
       <c r="O347" s="1"/>
+      <c r="P347" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.66666666666667</v>
+      </c>
       <c r="Q347">
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17">
       <c r="A348" t="s">
         <v>403</v>
       </c>
@@ -18360,11 +19560,15 @@
         <v>43388</v>
       </c>
       <c r="O348" s="1"/>
+      <c r="P348" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.75</v>
+      </c>
       <c r="Q348">
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17">
       <c r="A349" t="s">
         <v>404</v>
       </c>
@@ -18405,11 +19609,15 @@
         <v>43388</v>
       </c>
       <c r="O349" s="1"/>
+      <c r="P349" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.75</v>
+      </c>
       <c r="Q349">
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17">
       <c r="A350" t="s">
         <v>405</v>
       </c>
@@ -18450,11 +19658,15 @@
         <v>43405</v>
       </c>
       <c r="O350" s="1"/>
+      <c r="P350" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.83333333333333</v>
+      </c>
       <c r="Q350">
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17">
       <c r="A351" t="s">
         <v>406</v>
       </c>
@@ -18495,11 +19707,15 @@
         <v>43422</v>
       </c>
       <c r="O351" s="1"/>
+      <c r="P351" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.83333333333333</v>
+      </c>
       <c r="Q351">
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17">
       <c r="A352" t="s">
         <v>407</v>
       </c>
@@ -18540,11 +19756,15 @@
         <v>43422</v>
       </c>
       <c r="O352" s="1"/>
+      <c r="P352" s="2">
+        <f t="shared" si="5"/>
+        <v>-118.83333333333333</v>
+      </c>
       <c r="Q352">
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17">
       <c r="A353" t="s">
         <v>408</v>
       </c>
@@ -18585,11 +19805,15 @@
         <v>43476</v>
       </c>
       <c r="O353" s="1"/>
+      <c r="P353" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q353">
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -18630,11 +19854,15 @@
         <v>43476</v>
       </c>
       <c r="O354" s="1"/>
+      <c r="P354" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q354">
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17">
       <c r="A355" t="s">
         <v>410</v>
       </c>
@@ -18675,11 +19903,15 @@
         <v>43476</v>
       </c>
       <c r="O355" s="1"/>
+      <c r="P355" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q355">
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17">
       <c r="A356" t="s">
         <v>411</v>
       </c>
@@ -18720,11 +19952,15 @@
         <v>43476</v>
       </c>
       <c r="O356" s="1"/>
+      <c r="P356" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q356">
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17">
       <c r="A357" t="s">
         <v>412</v>
       </c>
@@ -18765,11 +20001,15 @@
         <v>43476</v>
       </c>
       <c r="O357" s="1"/>
+      <c r="P357" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q357">
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17">
       <c r="A358" t="s">
         <v>413</v>
       </c>
@@ -18810,11 +20050,15 @@
         <v>43476</v>
       </c>
       <c r="O358" s="1"/>
+      <c r="P358" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q358">
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17">
       <c r="A359" t="s">
         <v>414</v>
       </c>
@@ -18855,11 +20099,15 @@
         <v>43476</v>
       </c>
       <c r="O359" s="1"/>
+      <c r="P359" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q359">
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:17">
       <c r="A360" t="s">
         <v>415</v>
       </c>
@@ -18900,11 +20148,15 @@
         <v>43476</v>
       </c>
       <c r="O360" s="1"/>
+      <c r="P360" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q360">
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:17">
       <c r="A361" t="s">
         <v>416</v>
       </c>
@@ -18945,11 +20197,15 @@
         <v>43476</v>
       </c>
       <c r="O361" s="1"/>
+      <c r="P361" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q361">
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:17">
       <c r="A362" t="s">
         <v>417</v>
       </c>
@@ -18990,11 +20246,15 @@
         <v>43476</v>
       </c>
       <c r="O362" s="1"/>
+      <c r="P362" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q362">
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:17">
       <c r="A363" t="s">
         <v>418</v>
       </c>
@@ -19035,11 +20295,15 @@
         <v>43484</v>
       </c>
       <c r="O363" s="1"/>
+      <c r="P363" s="2">
+        <f t="shared" si="5"/>
+        <v>-119</v>
+      </c>
       <c r="Q363">
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:17">
       <c r="A364" t="s">
         <v>419</v>
       </c>
@@ -19080,11 +20344,15 @@
         <v>43540</v>
       </c>
       <c r="O364" s="1"/>
+      <c r="P364" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.16666666666667</v>
+      </c>
       <c r="Q364">
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:17">
       <c r="A365" t="s">
         <v>420</v>
       </c>
@@ -19125,11 +20393,15 @@
         <v>43575</v>
       </c>
       <c r="O365" s="1"/>
+      <c r="P365" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.25</v>
+      </c>
       <c r="Q365">
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:17">
       <c r="A366" t="s">
         <v>421</v>
       </c>
@@ -19170,11 +20442,15 @@
         <v>43602</v>
       </c>
       <c r="O366" s="1"/>
+      <c r="P366" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.33333333333333</v>
+      </c>
       <c r="Q366">
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:17">
       <c r="A367" t="s">
         <v>422</v>
       </c>
@@ -19215,11 +20491,15 @@
         <v>43640</v>
       </c>
       <c r="O367" s="1"/>
+      <c r="P367" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.41666666666667</v>
+      </c>
       <c r="Q367">
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:17">
       <c r="A368" t="s">
         <v>423</v>
       </c>
@@ -19260,11 +20540,15 @@
         <v>43730</v>
       </c>
       <c r="O368" s="1"/>
+      <c r="P368" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.66666666666667</v>
+      </c>
       <c r="Q368">
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:17">
       <c r="A369" t="s">
         <v>424</v>
       </c>
@@ -19305,11 +20589,15 @@
         <v>43730</v>
       </c>
       <c r="O369" s="1"/>
+      <c r="P369" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.66666666666667</v>
+      </c>
       <c r="Q369">
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17">
       <c r="A370" t="s">
         <v>425</v>
       </c>
@@ -19350,11 +20638,15 @@
         <v>43792</v>
       </c>
       <c r="O370" s="1"/>
+      <c r="P370" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.83333333333333</v>
+      </c>
       <c r="Q370">
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17">
       <c r="A371" t="s">
         <v>426</v>
       </c>
@@ -19395,11 +20687,15 @@
         <v>43792</v>
       </c>
       <c r="O371" s="1"/>
+      <c r="P371" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.83333333333333</v>
+      </c>
       <c r="Q371">
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17">
       <c r="A372" t="s">
         <v>427</v>
       </c>
@@ -19440,11 +20736,15 @@
         <v>43815</v>
       </c>
       <c r="O372" s="1"/>
+      <c r="P372" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.91666666666667</v>
+      </c>
       <c r="Q372">
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17">
       <c r="A373" t="s">
         <v>428</v>
       </c>
@@ -19485,11 +20785,15 @@
         <v>43815</v>
       </c>
       <c r="O373" s="1"/>
+      <c r="P373" s="2">
+        <f t="shared" si="5"/>
+        <v>-119.91666666666667</v>
+      </c>
       <c r="Q373">
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17">
       <c r="A374" t="s">
         <v>429</v>
       </c>
@@ -19530,11 +20834,15 @@
         <v>44005</v>
       </c>
       <c r="O374" s="1"/>
+      <c r="P374" s="2">
+        <f t="shared" si="5"/>
+        <v>-120.41666666666667</v>
+      </c>
       <c r="Q374">
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17">
       <c r="A375" t="s">
         <v>430</v>
       </c>
@@ -19575,11 +20883,15 @@
         <v>44255</v>
       </c>
       <c r="O375" s="1"/>
+      <c r="P375" s="2">
+        <f t="shared" si="5"/>
+        <v>-121.08333333333333</v>
+      </c>
       <c r="Q375">
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17">
       <c r="A376" t="s">
         <v>431</v>
       </c>
@@ -19620,16 +20932,20 @@
         <v>44466</v>
       </c>
       <c r="O376" s="1"/>
+      <c r="P376" s="2">
+        <f t="shared" si="5"/>
+        <v>-121.66666666666667</v>
+      </c>
       <c r="Q376">
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17">
       <c r="A377" t="s">
         <v>432</v>
       </c>
       <c r="B377" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C377" t="s">
         <v>24</v>
@@ -19665,11 +20981,15 @@
         <v>44493</v>
       </c>
       <c r="O377" s="1"/>
+      <c r="P377" s="2">
+        <f t="shared" si="5"/>
+        <v>-121.75</v>
+      </c>
       <c r="Q377">
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17">
       <c r="A378" t="s">
         <v>433</v>
       </c>
@@ -19710,11 +21030,15 @@
         <v>44535</v>
       </c>
       <c r="O378" s="1"/>
+      <c r="P378" s="2">
+        <f t="shared" si="5"/>
+        <v>-121.91666666666667</v>
+      </c>
       <c r="Q378">
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17">
       <c r="A379" t="s">
         <v>434</v>
       </c>
@@ -19755,11 +21079,15 @@
         <v>44535</v>
       </c>
       <c r="O379" s="1"/>
+      <c r="P379" s="2">
+        <f t="shared" si="5"/>
+        <v>-121.91666666666667</v>
+      </c>
       <c r="Q379">
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17">
       <c r="A380" t="s">
         <v>435</v>
       </c>
@@ -19800,11 +21128,15 @@
         <v>44552</v>
       </c>
       <c r="O380" s="1"/>
+      <c r="P380" s="2">
+        <f t="shared" si="5"/>
+        <v>-121.91666666666667</v>
+      </c>
       <c r="Q380">
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17">
       <c r="A381" t="s">
         <v>436</v>
       </c>
@@ -19845,11 +21177,15 @@
         <v>44621</v>
       </c>
       <c r="O381" s="1"/>
+      <c r="P381" s="2">
+        <f t="shared" si="5"/>
+        <v>-122.16666666666667</v>
+      </c>
       <c r="Q381">
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17">
       <c r="A382" t="s">
         <v>437</v>
       </c>
@@ -19890,11 +21226,15 @@
         <v>44666</v>
       </c>
       <c r="O382" s="1"/>
+      <c r="P382" s="2">
+        <f t="shared" si="5"/>
+        <v>-122.25</v>
+      </c>
       <c r="Q382">
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17">
       <c r="A383" t="s">
         <v>438</v>
       </c>
@@ -19935,6 +21275,10 @@
         <v>44731</v>
       </c>
       <c r="O383" s="1"/>
+      <c r="P383" s="2">
+        <f t="shared" si="5"/>
+        <v>-122.41666666666667</v>
+      </c>
       <c r="Q383">
         <v>15</v>
       </c>
